--- a/客户档案-20191126.xlsx
+++ b/客户档案-20191126.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1352F4BC-9963-49AD-8C58-AA6B4D94706A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="884"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户档案" sheetId="6" r:id="rId1"/>
@@ -12,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户档案!$A$1:$V$146</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="204">
   <si>
     <t>李鲜</t>
   </si>
@@ -167,9 +168,6 @@
     <t>郭超</t>
   </si>
   <si>
-    <t xml:space="preserve">韩朝红 </t>
-  </si>
-  <si>
     <t>黄洁</t>
   </si>
   <si>
@@ -270,9 +268,6 @@
   </si>
   <si>
     <t>郑欣馨</t>
-  </si>
-  <si>
-    <t>周琼</t>
   </si>
   <si>
     <t>朱兆仪</t>
@@ -749,17 +744,33 @@
     <t>H070000651</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>旗舰社区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx社区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H070000001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩朝红</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,68 +1274,68 @@
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="百分比 10" xfId="36"/>
-    <cellStyle name="百分比 10 2" xfId="52"/>
-    <cellStyle name="百分比 2" xfId="3"/>
-    <cellStyle name="百分比 3 4" xfId="42"/>
-    <cellStyle name="百分比 4" xfId="24"/>
+    <cellStyle name="百分比 10" xfId="36" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="百分比 10 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="百分比 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="百分比 3 4" xfId="42" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="百分比 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="21"/>
-    <cellStyle name="常规 11" xfId="26"/>
-    <cellStyle name="常规 11 2" xfId="18"/>
-    <cellStyle name="常规 11 2 2" xfId="53"/>
-    <cellStyle name="常规 11 3" xfId="25"/>
-    <cellStyle name="常规 12" xfId="39"/>
-    <cellStyle name="常规 12 18 2 2" xfId="17"/>
-    <cellStyle name="常规 12 18 2 2 2" xfId="22"/>
-    <cellStyle name="常规 12 18 2 2 4" xfId="43"/>
-    <cellStyle name="常规 12 18 3" xfId="20"/>
-    <cellStyle name="常规 12 19" xfId="37"/>
-    <cellStyle name="常规 12 19 2" xfId="48"/>
-    <cellStyle name="常规 12 2" xfId="45"/>
-    <cellStyle name="常规 13" xfId="44"/>
-    <cellStyle name="常规 14" xfId="34"/>
-    <cellStyle name="常规 16" xfId="38"/>
-    <cellStyle name="常规 17" xfId="13"/>
-    <cellStyle name="常规 19" xfId="31"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 2 10" xfId="11"/>
-    <cellStyle name="常规 2 10 15" xfId="16"/>
-    <cellStyle name="常规 2 10 15 2" xfId="50"/>
-    <cellStyle name="常规 2 10 2" xfId="30"/>
-    <cellStyle name="常规 2 2" xfId="10"/>
-    <cellStyle name="常规 2 25" xfId="35"/>
-    <cellStyle name="常规 2 26 2" xfId="14"/>
-    <cellStyle name="常规 2 26 2 2" xfId="19"/>
-    <cellStyle name="常规 2 3" xfId="9"/>
-    <cellStyle name="常规 2 3 2" xfId="12"/>
-    <cellStyle name="常规 2 3 2 2" xfId="58"/>
-    <cellStyle name="常规 2 3 3" xfId="15"/>
-    <cellStyle name="常规 2 3 3 3" xfId="27"/>
-    <cellStyle name="常规 2 3 5" xfId="32"/>
-    <cellStyle name="常规 2 3 6" xfId="33"/>
-    <cellStyle name="常规 2 5" xfId="59"/>
-    <cellStyle name="常规 2 6" xfId="28"/>
-    <cellStyle name="常规 2 6 2" xfId="5"/>
-    <cellStyle name="常规 2 6 2 2" xfId="29"/>
-    <cellStyle name="常规 2 6 2 2 2" xfId="51"/>
-    <cellStyle name="常规 2 6 2 3" xfId="40"/>
-    <cellStyle name="常规 2 6 2 4" xfId="55"/>
-    <cellStyle name="常规 2 6 2 5" xfId="57"/>
-    <cellStyle name="常规 2 6 3 9 2" xfId="47"/>
-    <cellStyle name="常规 2 6 4 3" xfId="56"/>
-    <cellStyle name="常规 23" xfId="62"/>
-    <cellStyle name="常规 3" xfId="8"/>
-    <cellStyle name="常规 3 2" xfId="23"/>
-    <cellStyle name="常规 3 3" xfId="46"/>
-    <cellStyle name="常规 3 4" xfId="54"/>
-    <cellStyle name="常规 3 5 2" xfId="49"/>
-    <cellStyle name="常规 3 6" xfId="41"/>
-    <cellStyle name="常规 4" xfId="7"/>
-    <cellStyle name="常规 5" xfId="61"/>
-    <cellStyle name="常规 7" xfId="60"/>
-    <cellStyle name="常规_Sheet1_1" xfId="4"/>
-    <cellStyle name="常规_Sheet1_2 4" xfId="6"/>
+    <cellStyle name="常规 10" xfId="21" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 11" xfId="26" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 11 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 11 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 11 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 12" xfId="39" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 12 18 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 12 18 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 12 18 2 2 4" xfId="43" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 12 18 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 12 19" xfId="37" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 12 19 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 12 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 13" xfId="44" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 14" xfId="34" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 16" xfId="38" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 17" xfId="13" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 19" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 2 10" xfId="11" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2 10 15" xfId="16" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2 10 15 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 2 10 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 2 25" xfId="35" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 2 26 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 2 26 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 2 3 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="常规 2 5" xfId="59" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="常规 2 6" xfId="28" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="常规 2 6 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="常规 2 6 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 2 6 2 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2 6 2 3" xfId="40" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="常规 2 6 2 4" xfId="55" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2 6 2 5" xfId="57" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="常规 2 6 3 9 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 6 4 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 23" xfId="62" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 3 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 3 4" xfId="54" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 3 5 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 3 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 4" xfId="7" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="常规 5" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="常规 7" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="常规_Sheet1_1" xfId="4" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="常规_Sheet1_2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1334,7 +1345,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="表样式 1" pivot="0" count="1">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1350,7 +1361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1425,6 +1436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1460,6 +1488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1635,45 +1680,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="20" customWidth="1"/>
-    <col min="8" max="12" width="8.625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.625" style="19" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="21" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.25" style="31" customWidth="1"/>
-    <col min="21" max="22" width="9.25" style="22" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="19" customWidth="1"/>
+    <col min="1" max="4" width="8.6328125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="20" customWidth="1"/>
+    <col min="8" max="12" width="8.6328125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.6328125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="8.6328125" style="21" customWidth="1"/>
+    <col min="19" max="19" width="8.6328125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.26953125" style="31" customWidth="1"/>
+    <col min="21" max="22" width="9.26953125" style="22" customWidth="1"/>
+    <col min="23" max="23" width="8.6328125" style="19" customWidth="1"/>
     <col min="24" max="24" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="57">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1682,22 +1727,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>2</v>
@@ -1706,7 +1751,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
@@ -1718,27 +1763,27 @@
         <v>7</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T1" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>0</v>
@@ -1747,31 +1792,31 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>10</v>
+        <v>179</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="N2" s="23">
         <v>13366839490</v>
@@ -1805,12 +1850,12 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>0</v>
@@ -1822,25 +1867,25 @@
         <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>11</v>
@@ -1877,12 +1922,12 @@
       </c>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>0</v>
@@ -1891,28 +1936,28 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>11</v>
@@ -1949,12 +1994,12 @@
       </c>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>0</v>
@@ -1969,22 +2014,22 @@
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>11</v>
@@ -2021,12 +2066,12 @@
       </c>
       <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>0</v>
@@ -2041,22 +2086,22 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>11</v>
@@ -2093,12 +2138,12 @@
       </c>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>0</v>
@@ -2113,22 +2158,22 @@
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>10</v>
@@ -2165,12 +2210,12 @@
       </c>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>0</v>
@@ -2185,22 +2230,22 @@
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>11</v>
@@ -2237,12 +2282,12 @@
       </c>
       <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>0</v>
@@ -2257,22 +2302,22 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>10</v>
@@ -2309,12 +2354,12 @@
       </c>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>0</v>
@@ -2329,22 +2374,22 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>9</v>
@@ -2381,12 +2426,12 @@
       </c>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>0</v>
@@ -2401,22 +2446,22 @@
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>11</v>
@@ -2453,12 +2498,12 @@
       </c>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>0</v>
@@ -2473,22 +2518,22 @@
         <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>10</v>
@@ -2525,12 +2570,12 @@
       </c>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>0</v>
@@ -2545,22 +2590,22 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>10</v>
@@ -2597,12 +2642,12 @@
       </c>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>0</v>
@@ -2617,22 +2662,22 @@
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>11</v>
@@ -2669,12 +2714,12 @@
       </c>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>0</v>
@@ -2689,22 +2734,22 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>11</v>
@@ -2741,12 +2786,12 @@
       </c>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>0</v>
@@ -2761,22 +2806,22 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>10</v>
@@ -2813,12 +2858,12 @@
       </c>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>0</v>
@@ -2833,22 +2878,22 @@
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>10</v>
@@ -2885,12 +2930,12 @@
       </c>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>0</v>
@@ -2905,22 +2950,22 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>11</v>
@@ -2957,12 +3002,12 @@
       </c>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>0</v>
@@ -2977,22 +3022,22 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>11</v>
@@ -3029,12 +3074,12 @@
       </c>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>0</v>
@@ -3049,22 +3094,22 @@
         <v>14</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>11</v>
@@ -3101,12 +3146,12 @@
       </c>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>0</v>
@@ -3121,22 +3166,22 @@
         <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>11</v>
@@ -3173,12 +3218,12 @@
       </c>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>0</v>
@@ -3193,22 +3238,22 @@
         <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>10</v>
@@ -3245,12 +3290,12 @@
       </c>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>0</v>
@@ -3265,22 +3310,22 @@
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>10</v>
@@ -3317,12 +3362,12 @@
       </c>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>0</v>
@@ -3337,22 +3382,22 @@
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>10</v>
@@ -3389,12 +3434,12 @@
       </c>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>0</v>
@@ -3409,22 +3454,22 @@
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>10</v>
@@ -3461,12 +3506,12 @@
       </c>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>0</v>
@@ -3481,22 +3526,22 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>10</v>
@@ -3533,12 +3578,12 @@
       </c>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>0</v>
@@ -3553,22 +3598,22 @@
         <v>14</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>11</v>
@@ -3605,12 +3650,12 @@
       </c>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>0</v>
@@ -3625,22 +3670,22 @@
         <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>11</v>
@@ -3677,12 +3722,12 @@
       </c>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>0</v>
@@ -3697,22 +3742,22 @@
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>11</v>
@@ -3749,12 +3794,12 @@
       </c>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>0</v>
@@ -3769,22 +3814,22 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>10</v>
@@ -3821,12 +3866,12 @@
       </c>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>0</v>
@@ -3841,22 +3886,22 @@
         <v>14</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>10</v>
@@ -3893,12 +3938,12 @@
       </c>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>0</v>
@@ -3913,22 +3958,22 @@
         <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>11</v>
@@ -3965,12 +4010,12 @@
       </c>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>0</v>
@@ -3985,22 +4030,22 @@
         <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>11</v>
@@ -4037,12 +4082,12 @@
       </c>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>0</v>
@@ -4057,22 +4102,22 @@
         <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>11</v>
@@ -4109,12 +4154,12 @@
       </c>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>0</v>
@@ -4129,22 +4174,22 @@
         <v>14</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>10</v>
@@ -4181,12 +4226,12 @@
       </c>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>0</v>
@@ -4201,22 +4246,22 @@
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7" t="s">
         <v>10</v>
@@ -4253,12 +4298,12 @@
       </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>0</v>
@@ -4273,22 +4318,22 @@
         <v>14</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>10</v>
@@ -4325,12 +4370,12 @@
       </c>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>0</v>
@@ -4345,22 +4390,22 @@
         <v>14</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M38" s="7" t="s">
         <v>11</v>
@@ -4397,12 +4442,12 @@
       </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>0</v>
@@ -4417,22 +4462,22 @@
         <v>14</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>10</v>
@@ -4469,12 +4514,12 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>0</v>
@@ -4489,22 +4534,22 @@
         <v>14</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M40" s="7" t="s">
         <v>10</v>
@@ -4541,12 +4586,12 @@
       </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>0</v>
@@ -4561,22 +4606,22 @@
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>10</v>
@@ -4613,12 +4658,12 @@
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>0</v>
@@ -4633,22 +4678,22 @@
         <v>14</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>11</v>
@@ -4685,12 +4730,12 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>0</v>
@@ -4705,22 +4750,22 @@
         <v>14</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>9</v>
@@ -4757,12 +4802,12 @@
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>0</v>
@@ -4777,22 +4822,22 @@
         <v>14</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>11</v>
@@ -4829,12 +4874,12 @@
       </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>0</v>
@@ -4849,22 +4894,22 @@
         <v>14</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>11</v>
@@ -4901,12 +4946,12 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>0</v>
@@ -4921,22 +4966,22 @@
         <v>14</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>11</v>
@@ -4973,12 +5018,12 @@
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>0</v>
@@ -4993,22 +5038,22 @@
         <v>14</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>11</v>
@@ -5045,12 +5090,12 @@
       </c>
       <c r="W47" s="10"/>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>0</v>
@@ -5065,22 +5110,22 @@
         <v>14</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M48" s="7" t="s">
         <v>10</v>
@@ -5117,12 +5162,12 @@
       </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>0</v>
@@ -5137,22 +5182,22 @@
         <v>14</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>11</v>
@@ -5189,12 +5234,12 @@
       </c>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>0</v>
@@ -5209,22 +5254,22 @@
         <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>10</v>
@@ -5261,12 +5306,12 @@
       </c>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>0</v>
@@ -5281,22 +5326,22 @@
         <v>14</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>11</v>
@@ -5333,12 +5378,12 @@
       </c>
       <c r="W51" s="10"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>0</v>
@@ -5353,22 +5398,22 @@
         <v>14</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M52" s="7" t="s">
         <v>10</v>
@@ -5405,12 +5450,12 @@
       </c>
       <c r="W52" s="10"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>0</v>
@@ -5425,22 +5470,22 @@
         <v>14</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>10</v>
@@ -5477,12 +5522,12 @@
       </c>
       <c r="W53" s="10"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>0</v>
@@ -5497,22 +5542,22 @@
         <v>14</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M54" s="7" t="s">
         <v>11</v>
@@ -5549,42 +5594,42 @@
       </c>
       <c r="W54" s="10"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="D55" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="E55" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="F55" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="J55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="L55" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M55" s="13" t="s">
         <v>11</v>
@@ -5619,42 +5664,42 @@
       </c>
       <c r="W55" s="15"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="D56" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="F56" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="K56" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J56" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="L56" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M56" s="13" t="s">
         <v>10</v>
@@ -5689,42 +5734,42 @@
       </c>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="E57" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="G57" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K57" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M57" s="13" t="s">
         <v>11</v>
@@ -5759,42 +5804,42 @@
       </c>
       <c r="W57" s="15"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="D58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="13" t="s">
+      <c r="E58" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="F58" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K58" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M58" s="13" t="s">
         <v>10</v>
@@ -5829,42 +5874,42 @@
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="E59" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="G59" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K59" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M59" s="13" t="s">
         <v>9</v>
@@ -5901,42 +5946,42 @@
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="D60" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="F60" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K60" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>11</v>
@@ -5973,42 +6018,42 @@
       </c>
       <c r="W60" s="15"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="E61" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="G61" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K61" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>11</v>
@@ -6043,42 +6088,42 @@
       </c>
       <c r="W61" s="15"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="12" t="s">
+      <c r="D62" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="E62" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="G62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K62" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>10</v>
@@ -6115,42 +6160,42 @@
       </c>
       <c r="W62" s="15"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="D63" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="E63" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="F63" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="J63" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K63" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>10</v>
@@ -6187,42 +6232,42 @@
       </c>
       <c r="W63" s="15"/>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="D64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="E64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="F64" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="J64" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K64" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M64" s="13" t="s">
         <v>11</v>
@@ -6259,42 +6304,42 @@
       </c>
       <c r="W64" s="15"/>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="D65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="13" t="s">
+      <c r="E65" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="F65" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K65" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M65" s="13" t="s">
         <v>10</v>
@@ -6329,42 +6374,42 @@
       </c>
       <c r="W65" s="15"/>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="D66" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="E66" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H66" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K66" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M66" s="13" t="s">
         <v>11</v>
@@ -6399,42 +6444,42 @@
       </c>
       <c r="W66" s="15"/>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="D67" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="E67" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="F67" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="J67" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K67" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M67" s="13" t="s">
         <v>10</v>
@@ -6471,42 +6516,42 @@
       </c>
       <c r="W67" s="15"/>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="D68" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="13" t="s">
+      <c r="E68" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="F68" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="J68" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K68" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>11</v>
@@ -6541,42 +6586,42 @@
       </c>
       <c r="W68" s="15"/>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="D69" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="13" t="s">
+      <c r="E69" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="F69" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="J69" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K69" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M69" s="13" t="s">
         <v>11</v>
@@ -6613,42 +6658,42 @@
       </c>
       <c r="W69" s="15"/>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="12" t="s">
+      <c r="D70" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="E70" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="G70" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="J70" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K70" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M70" s="13" t="s">
         <v>10</v>
@@ -6685,42 +6730,42 @@
       </c>
       <c r="W70" s="15"/>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="D71" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="E71" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="F71" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K71" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M71" s="13" t="s">
         <v>10</v>
@@ -6757,42 +6802,42 @@
       </c>
       <c r="W71" s="15"/>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="D72" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="E72" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="F72" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F72" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" s="7" t="s">
+      <c r="J72" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H72" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K72" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M72" s="13" t="s">
         <v>11</v>
@@ -6827,42 +6872,42 @@
       </c>
       <c r="W72" s="15"/>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="D73" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="E73" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="G73" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="J73" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H73" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K73" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>11</v>
@@ -6897,42 +6942,42 @@
       </c>
       <c r="W73" s="15"/>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="D74" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="13" t="s">
+      <c r="E74" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="F74" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="J74" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H74" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K74" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M74" s="13" t="s">
         <v>11</v>
@@ -6967,42 +7012,42 @@
       </c>
       <c r="W74" s="15"/>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="D75" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="F75" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="J75" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H75" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K75" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>10</v>
@@ -7037,42 +7082,42 @@
       </c>
       <c r="W75" s="15"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="D76" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="13" t="s">
+      <c r="E76" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="F76" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" s="7" t="s">
+      <c r="J76" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H76" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K76" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M76" s="13" t="s">
         <v>10</v>
@@ -7109,42 +7154,42 @@
       </c>
       <c r="W76" s="15"/>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="D77" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="13" t="s">
+      <c r="E77" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="F77" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I77" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="J77" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H77" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K77" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M77" s="13" t="s">
         <v>10</v>
@@ -7181,42 +7226,42 @@
       </c>
       <c r="W77" s="15"/>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="D78" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="13" t="s">
+      <c r="E78" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="F78" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I78" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="J78" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K78" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M78" s="13" t="s">
         <v>10</v>
@@ -7251,42 +7296,42 @@
       </c>
       <c r="W78" s="15"/>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="12" t="s">
+      <c r="D79" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="E79" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="G79" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F79" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="7" t="s">
+      <c r="J79" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H79" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K79" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M79" s="13" t="s">
         <v>9</v>
@@ -7321,42 +7366,42 @@
       </c>
       <c r="W79" s="15"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="D80" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="13" t="s">
+      <c r="E80" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="F80" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I80" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F80" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K80" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M80" s="13" t="s">
         <v>11</v>
@@ -7391,42 +7436,42 @@
       </c>
       <c r="W80" s="15"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="D81" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="13" t="s">
+      <c r="E81" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="F81" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="J81" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H81" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K81" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M81" s="13" t="s">
         <v>10</v>
@@ -7461,42 +7506,42 @@
       </c>
       <c r="W81" s="15"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="D82" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="E82" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H82" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K82" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M82" s="13" t="s">
         <v>9</v>
@@ -7533,42 +7578,42 @@
       </c>
       <c r="W82" s="15"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="D83" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="E83" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="F83" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" s="7" t="s">
+      <c r="J83" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K83" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M83" s="13" t="s">
         <v>11</v>
@@ -7603,42 +7648,42 @@
       </c>
       <c r="W83" s="15"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="D84" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="13" t="s">
+      <c r="E84" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="F84" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I84" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F84" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" s="7" t="s">
+      <c r="J84" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H84" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K84" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M84" s="13" t="s">
         <v>10</v>
@@ -7673,42 +7718,42 @@
       </c>
       <c r="W84" s="15"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="D85" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="13" t="s">
+      <c r="E85" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="F85" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F85" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" s="7" t="s">
+      <c r="J85" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K85" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M85" s="13" t="s">
         <v>9</v>
@@ -7743,42 +7788,42 @@
       </c>
       <c r="W85" s="15"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="D86" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="E86" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="G86" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K86" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M86" s="13" t="s">
         <v>10</v>
@@ -7815,42 +7860,42 @@
       </c>
       <c r="W86" s="15"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="D87" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="13" t="s">
+      <c r="E87" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="F87" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I87" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F87" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H87" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K87" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M87" s="13" t="s">
         <v>10</v>
@@ -7885,42 +7930,42 @@
       </c>
       <c r="W87" s="15"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88" s="12" t="s">
+      <c r="D88" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="E88" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="G88" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F88" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G88" s="7" t="s">
+      <c r="J88" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K88" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M88" s="13" t="s">
         <v>10</v>
@@ -7955,42 +8000,42 @@
       </c>
       <c r="W88" s="15"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="D89" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="13" t="s">
+      <c r="E89" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="F89" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I89" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F89" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G89" s="7" t="s">
+      <c r="J89" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H89" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K89" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M89" s="13" t="s">
         <v>10</v>
@@ -8025,42 +8070,42 @@
       </c>
       <c r="W89" s="15"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="D90" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="13" t="s">
+      <c r="E90" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="F90" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I90" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F90" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" s="7" t="s">
+      <c r="J90" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H90" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K90" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M90" s="13" t="s">
         <v>11</v>
@@ -8095,42 +8140,42 @@
       </c>
       <c r="W90" s="15"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="D91" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D91" s="13" t="s">
+      <c r="E91" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="F91" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I91" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F91" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="7" t="s">
+      <c r="J91" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H91" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K91" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M91" s="13" t="s">
         <v>11</v>
@@ -8165,42 +8210,42 @@
       </c>
       <c r="W91" s="15"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="D92" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="13" t="s">
+      <c r="E92" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="F92" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I92" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F92" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="7" t="s">
+      <c r="J92" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H92" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K92" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>10</v>
@@ -8235,42 +8280,42 @@
       </c>
       <c r="W92" s="15"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="D93" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" s="13" t="s">
+      <c r="E93" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="F93" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F93" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="J93" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H93" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K93" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M93" s="13" t="s">
         <v>10</v>
@@ -8305,42 +8350,42 @@
       </c>
       <c r="W93" s="15"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="D94" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="13" t="s">
+      <c r="E94" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="F94" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F94" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" s="7" t="s">
+      <c r="J94" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H94" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K94" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M94" s="13" t="s">
         <v>10</v>
@@ -8377,42 +8422,42 @@
       </c>
       <c r="W94" s="15"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="D95" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="E95" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="G95" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F95" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G95" s="7" t="s">
+      <c r="J95" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H95" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K95" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M95" s="13" t="s">
         <v>10</v>
@@ -8447,42 +8492,42 @@
       </c>
       <c r="W95" s="15"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="D96" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="E96" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F96" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="G96" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I96" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F96" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G96" s="7" t="s">
+      <c r="J96" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H96" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K96" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M96" s="13" t="s">
         <v>10</v>
@@ -8517,42 +8562,42 @@
       </c>
       <c r="W96" s="15"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="12" t="s">
+      <c r="D97" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="E97" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="G97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I97" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F97" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" s="7" t="s">
+      <c r="J97" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H97" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K97" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M97" s="13" t="s">
         <v>10</v>
@@ -8589,42 +8634,42 @@
       </c>
       <c r="W97" s="15"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="D98" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="13" t="s">
+      <c r="E98" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="F98" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I98" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F98" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" s="7" t="s">
+      <c r="J98" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H98" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K98" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M98" s="13" t="s">
         <v>10</v>
@@ -8659,42 +8704,42 @@
       </c>
       <c r="W98" s="15"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" s="12" t="s">
+      <c r="D99" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="E99" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="G99" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F99" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G99" s="7" t="s">
+      <c r="J99" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H99" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K99" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M99" s="13" t="s">
         <v>10</v>
@@ -8731,42 +8776,42 @@
       </c>
       <c r="W99" s="15"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="12" t="s">
+      <c r="D100" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="E100" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F100" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="G100" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F100" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="J100" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H100" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K100" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M100" s="13" t="s">
         <v>10</v>
@@ -8803,42 +8848,42 @@
       </c>
       <c r="W100" s="15"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="12" t="s">
+      <c r="D101" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="E101" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F101" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E101" s="13" t="s">
+      <c r="G101" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I101" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F101" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G101" s="7" t="s">
+      <c r="J101" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H101" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K101" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M101" s="13" t="s">
         <v>10</v>
@@ -8875,42 +8920,42 @@
       </c>
       <c r="W101" s="15"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="D102" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="E102" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="F102" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I102" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F102" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G102" s="7" t="s">
+      <c r="J102" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H102" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K102" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M102" s="13" t="s">
         <v>10</v>
@@ -8945,42 +8990,42 @@
       </c>
       <c r="W102" s="15"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" s="12" t="s">
+      <c r="D103" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="E103" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="G103" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I103" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F103" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G103" s="7" t="s">
+      <c r="J103" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H103" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K103" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M103" s="13" t="s">
         <v>9</v>
@@ -9017,42 +9062,42 @@
       </c>
       <c r="W103" s="15"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="D104" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="E104" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E104" s="13" t="s">
+      <c r="F104" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I104" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F104" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G104" s="7" t="s">
+      <c r="J104" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H104" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K104" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M104" s="13" t="s">
         <v>10</v>
@@ -9087,42 +9132,42 @@
       </c>
       <c r="W104" s="15"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" s="12" t="s">
+      <c r="D105" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="E105" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="G105" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I105" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F105" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G105" s="7" t="s">
+      <c r="J105" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H105" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K105" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M105" s="13" t="s">
         <v>10</v>
@@ -9157,42 +9202,42 @@
       </c>
       <c r="W105" s="15"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B106" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="12" t="s">
+      <c r="D106" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="E106" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="G106" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I106" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F106" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G106" s="7" t="s">
+      <c r="J106" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H106" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K106" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M106" s="13" t="s">
         <v>9</v>
@@ -9227,42 +9272,42 @@
       </c>
       <c r="W106" s="15"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="12" t="s">
+      <c r="D107" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="E107" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="G107" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I107" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F107" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G107" s="7" t="s">
+      <c r="J107" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H107" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K107" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M107" s="13" t="s">
         <v>11</v>
@@ -9297,42 +9342,42 @@
       </c>
       <c r="W107" s="15"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="D108" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" s="13" t="s">
+      <c r="E108" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E108" s="13" t="s">
+      <c r="F108" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I108" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G108" s="7" t="s">
+      <c r="J108" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H108" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K108" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M108" s="13" t="s">
         <v>10</v>
@@ -9367,42 +9412,42 @@
       </c>
       <c r="W108" s="15"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="D109" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D109" s="13" t="s">
+      <c r="E109" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="F109" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F109" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G109" s="7" t="s">
+      <c r="J109" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H109" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K109" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M109" s="13" t="s">
         <v>9</v>
@@ -9439,42 +9484,42 @@
       </c>
       <c r="W109" s="15"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="D110" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D110" s="13" t="s">
+      <c r="E110" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="F110" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I110" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F110" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G110" s="7" t="s">
+      <c r="J110" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H110" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K110" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M110" s="13" t="s">
         <v>10</v>
@@ -9509,42 +9554,42 @@
       </c>
       <c r="W110" s="15"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="12" t="s">
+      <c r="D111" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="E111" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="G111" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I111" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F111" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G111" s="7" t="s">
+      <c r="J111" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H111" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K111" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M111" s="13" t="s">
         <v>10</v>
@@ -9581,42 +9626,42 @@
       </c>
       <c r="W111" s="15"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="D112" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D112" s="13" t="s">
+      <c r="E112" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E112" s="13" t="s">
+      <c r="F112" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I112" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F112" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G112" s="7" t="s">
+      <c r="J112" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H112" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K112" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M112" s="13" t="s">
         <v>11</v>
@@ -9651,42 +9696,42 @@
       </c>
       <c r="W112" s="15"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="12" t="s">
+      <c r="D113" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="E113" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F113" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E113" s="13" t="s">
+      <c r="G113" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I113" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F113" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" s="7" t="s">
+      <c r="J113" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H113" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K113" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M113" s="13" t="s">
         <v>10</v>
@@ -9723,42 +9768,42 @@
       </c>
       <c r="W113" s="15"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="12" t="s">
+      <c r="D114" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="E114" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F114" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="G114" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I114" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F114" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G114" s="7" t="s">
+      <c r="J114" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H114" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K114" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M114" s="13" t="s">
         <v>10</v>
@@ -9795,42 +9840,42 @@
       </c>
       <c r="W114" s="15"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C115" s="12" t="s">
+      <c r="D115" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="E115" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E115" s="13" t="s">
+      <c r="G115" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I115" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F115" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115" s="7" t="s">
+      <c r="J115" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H115" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K115" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M115" s="13" t="s">
         <v>10</v>
@@ -9865,42 +9910,42 @@
       </c>
       <c r="W115" s="15"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="D116" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D116" s="13" t="s">
+      <c r="E116" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="F116" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I116" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F116" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G116" s="7" t="s">
+      <c r="J116" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H116" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K116" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M116" s="13" t="s">
         <v>10</v>
@@ -9935,42 +9980,42 @@
       </c>
       <c r="W116" s="15"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="12" t="s">
+      <c r="D117" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="E117" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="G117" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I117" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F117" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G117" s="7" t="s">
+      <c r="J117" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H117" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K117" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M117" s="13" t="s">
         <v>10</v>
@@ -10007,42 +10052,42 @@
       </c>
       <c r="W117" s="15"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" s="12" t="s">
+      <c r="D118" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="E118" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E118" s="13" t="s">
+      <c r="G118" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I118" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F118" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G118" s="7" t="s">
+      <c r="J118" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H118" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K118" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M118" s="13" t="s">
         <v>10</v>
@@ -10079,42 +10124,42 @@
       </c>
       <c r="W118" s="15"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="D119" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" s="13" t="s">
+      <c r="E119" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E119" s="13" t="s">
+      <c r="F119" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F119" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G119" s="7" t="s">
+      <c r="J119" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H119" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K119" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M119" s="13" t="s">
         <v>10</v>
@@ -10149,42 +10194,42 @@
       </c>
       <c r="W119" s="15"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="D120" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D120" s="13" t="s">
+      <c r="E120" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="F120" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I120" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F120" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G120" s="7" t="s">
+      <c r="J120" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H120" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K120" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M120" s="13" t="s">
         <v>10</v>
@@ -10219,42 +10264,42 @@
       </c>
       <c r="W120" s="15"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="D121" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D121" s="13" t="s">
+      <c r="E121" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E121" s="13" t="s">
+      <c r="F121" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I121" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F121" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G121" s="7" t="s">
+      <c r="J121" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H121" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K121" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M121" s="13" t="s">
         <v>10</v>
@@ -10289,42 +10334,42 @@
       </c>
       <c r="W121" s="15"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="D122" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D122" s="13" t="s">
+      <c r="E122" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="F122" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I122" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F122" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G122" s="7" t="s">
+      <c r="J122" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H122" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K122" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M122" s="13" t="s">
         <v>11</v>
@@ -10359,42 +10404,42 @@
       </c>
       <c r="W122" s="15"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B123" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C123" s="12" t="s">
+      <c r="D123" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="E123" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="G123" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I123" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F123" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G123" s="7" t="s">
+      <c r="J123" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H123" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K123" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M123" s="13" t="s">
         <v>10</v>
@@ -10431,42 +10476,42 @@
       </c>
       <c r="W123" s="15"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124" s="12" t="s">
+      <c r="D124" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="E124" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F124" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E124" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>83</v>
-      </c>
       <c r="G124" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J124" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H124" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K124" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M124" s="13" t="s">
         <v>10</v>
@@ -10503,42 +10548,42 @@
       </c>
       <c r="W124" s="15"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" s="12" t="s">
+      <c r="D125" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="E125" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="G125" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I125" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F125" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G125" s="7" t="s">
+      <c r="J125" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H125" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K125" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M125" s="13" t="s">
         <v>11</v>
@@ -10575,42 +10620,42 @@
       </c>
       <c r="W125" s="15"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="D126" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D126" s="13" t="s">
+      <c r="E126" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="F126" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I126" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F126" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G126" s="7" t="s">
+      <c r="J126" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H126" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K126" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M126" s="13" t="s">
         <v>10</v>
@@ -10645,42 +10690,42 @@
       </c>
       <c r="W126" s="15"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="D127" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D127" s="13" t="s">
+      <c r="E127" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E127" s="13" t="s">
+      <c r="F127" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I127" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F127" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G127" s="7" t="s">
+      <c r="J127" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H127" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K127" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M127" s="13" t="s">
         <v>10</v>
@@ -10715,42 +10760,42 @@
       </c>
       <c r="W127" s="15"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B128" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C128" s="12" t="s">
+      <c r="D128" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="E128" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F128" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E128" s="13" t="s">
+      <c r="G128" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I128" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F128" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G128" s="7" t="s">
+      <c r="J128" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H128" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K128" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M128" s="13" t="s">
         <v>11</v>
@@ -10785,42 +10830,42 @@
       </c>
       <c r="W128" s="15"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="D129" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="13" t="s">
+      <c r="E129" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E129" s="13" t="s">
+      <c r="F129" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I129" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F129" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G129" s="7" t="s">
+      <c r="J129" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H129" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K129" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M129" s="13" t="s">
         <v>10</v>
@@ -10855,42 +10900,42 @@
       </c>
       <c r="W129" s="15"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B130" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" s="12" t="s">
+      <c r="D130" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="E130" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F130" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="G130" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I130" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F130" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G130" s="7" t="s">
+      <c r="J130" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H130" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K130" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M130" s="13" t="s">
         <v>10</v>
@@ -10925,42 +10970,42 @@
       </c>
       <c r="W130" s="15"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B131" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" s="12" t="s">
+      <c r="D131" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="E131" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F131" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="13" t="s">
+      <c r="G131" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I131" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F131" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G131" s="7" t="s">
+      <c r="J131" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H131" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K131" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M131" s="13" t="s">
         <v>10</v>
@@ -10997,42 +11042,42 @@
       </c>
       <c r="W131" s="15"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C132" s="12" t="s">
+      <c r="D132" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="E132" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F132" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E132" s="13" t="s">
+      <c r="G132" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I132" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F132" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G132" s="7" t="s">
+      <c r="J132" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H132" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K132" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M132" s="13" t="s">
         <v>11</v>
@@ -11067,42 +11112,42 @@
       </c>
       <c r="W132" s="15"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="D133" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D133" s="13" t="s">
+      <c r="E133" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="F133" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I133" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F133" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G133" s="7" t="s">
+      <c r="J133" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K133" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M133" s="13" t="s">
         <v>11</v>
@@ -11137,42 +11182,42 @@
       </c>
       <c r="W133" s="15"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B134" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="E134" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="G134" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I134" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F134" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G134" s="7" t="s">
+      <c r="J134" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H134" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K134" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M134" s="13" t="s">
         <v>10</v>
@@ -11207,42 +11252,42 @@
       </c>
       <c r="W134" s="15"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="D135" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D135" s="13" t="s">
+      <c r="E135" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E135" s="13" t="s">
+      <c r="F135" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I135" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F135" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G135" s="7" t="s">
+      <c r="J135" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H135" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K135" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M135" s="13" t="s">
         <v>10</v>
@@ -11277,42 +11322,42 @@
       </c>
       <c r="W135" s="15"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="D136" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D136" s="13" t="s">
+      <c r="E136" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="F136" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I136" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F136" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G136" s="7" t="s">
+      <c r="J136" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H136" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K136" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M136" s="13" t="s">
         <v>10</v>
@@ -11349,42 +11394,42 @@
       </c>
       <c r="W136" s="15"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B137" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C137" s="12" t="s">
+      <c r="D137" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="E137" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F137" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E137" s="13" t="s">
+      <c r="G137" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I137" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F137" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G137" s="7" t="s">
+      <c r="J137" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H137" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K137" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M137" s="13" t="s">
         <v>11</v>
@@ -11419,42 +11464,42 @@
       </c>
       <c r="W137" s="15"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C138" s="12" t="s">
+      <c r="D138" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="E138" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F138" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E138" s="13" t="s">
+      <c r="G138" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I138" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F138" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G138" s="7" t="s">
+      <c r="J138" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H138" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K138" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M138" s="13" t="s">
         <v>10</v>
@@ -11491,42 +11536,42 @@
       </c>
       <c r="W138" s="15"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B139" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C139" s="12" t="s">
+      <c r="D139" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="E139" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F139" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E139" s="13" t="s">
+      <c r="G139" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I139" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F139" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G139" s="7" t="s">
+      <c r="J139" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H139" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K139" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M139" s="13" t="s">
         <v>10</v>
@@ -11563,42 +11608,42 @@
       </c>
       <c r="W139" s="15"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="D140" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D140" s="13" t="s">
+      <c r="E140" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="F140" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I140" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F140" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G140" s="7" t="s">
+      <c r="J140" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H140" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K140" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M140" s="13" t="s">
         <v>11</v>
@@ -11633,42 +11678,42 @@
       </c>
       <c r="W140" s="15"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B141" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C141" s="12" t="s">
+      <c r="D141" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="E141" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F141" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E141" s="13" t="s">
+      <c r="G141" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I141" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F141" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G141" s="7" t="s">
+      <c r="J141" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H141" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K141" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M141" s="13" t="s">
         <v>10</v>
@@ -11705,42 +11750,42 @@
       </c>
       <c r="W141" s="15"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C142" s="12" t="s">
+      <c r="D142" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="E142" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F142" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="G142" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I142" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F142" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G142" s="7" t="s">
+      <c r="J142" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H142" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K142" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M142" s="13" t="s">
         <v>10</v>
@@ -11777,42 +11822,42 @@
       </c>
       <c r="W142" s="15"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C143" s="12" t="s">
+      <c r="D143" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="E143" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F143" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="G143" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I143" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F143" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G143" s="7" t="s">
+      <c r="J143" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H143" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J143" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K143" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M143" s="13" t="s">
         <v>10</v>
@@ -11849,42 +11894,42 @@
       </c>
       <c r="W143" s="15"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="D144" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C144" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D144" s="13" t="s">
+      <c r="E144" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="F144" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I144" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F144" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G144" s="7" t="s">
+      <c r="J144" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H144" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J144" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K144" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M144" s="13" t="s">
         <v>10</v>
@@ -11919,42 +11964,42 @@
       </c>
       <c r="W144" s="15"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C145" s="12" t="s">
+      <c r="D145" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="E145" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F145" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E145" s="13" t="s">
+      <c r="G145" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I145" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F145" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G145" s="7" t="s">
+      <c r="J145" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H145" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J145" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K145" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M145" s="13" t="s">
         <v>10</v>
@@ -11991,42 +12036,42 @@
       </c>
       <c r="W145" s="15"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="D146" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C146" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D146" s="13" t="s">
+      <c r="E146" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="F146" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I146" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F146" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G146" s="7" t="s">
+      <c r="J146" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H146" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="K146" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M146" s="13" t="s">
         <v>10</v>
@@ -12064,11 +12109,11 @@
       <c r="W146" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V146"/>
+  <autoFilter ref="A1:V146" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q118">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q118" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/客户档案-20191126.xlsx
+++ b/客户档案-20191126.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1352F4BC-9963-49AD-8C58-AA6B4D94706A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6AFA5-43F3-4E14-AFA0-577D48E8826A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="客户档案" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户档案!$A$1:$V$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户档案!$A$1:$V$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="200">
   <si>
     <t>李鲜</t>
   </si>
@@ -721,10 +721,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>北京</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>H070000642</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -742,18 +738,6 @@
   </si>
   <si>
     <t>H070000651</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗舰社区</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx社区</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H070000001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -770,7 +754,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,14 +1665,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W146"/>
+  <dimension ref="A1:W145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="A54:XFD145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5"/>
   <cols>
     <col min="1" max="4" width="8.6328125" style="18" customWidth="1"/>
     <col min="5" max="5" width="12.6328125" style="18" customWidth="1"/>
@@ -1707,7 +1691,7 @@
     <col min="25" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="67.5">
       <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
@@ -1778,7 +1762,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
@@ -1792,65 +1776,65 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>186</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="23" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="23">
-        <v>13366839490</v>
+        <v>13501007841</v>
       </c>
       <c r="O2" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P2" s="10">
         <v>30</v>
       </c>
       <c r="Q2" s="10">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="R2" s="34">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="S2" s="10">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="T2" s="32">
-        <f>Q2*R2</f>
-        <v>21060</v>
+        <f t="shared" ref="T2:T65" si="0">Q2*R2</f>
+        <v>6120</v>
       </c>
       <c r="U2" s="11" t="str">
-        <f t="shared" ref="U2:U33" si="0">IF(T2&lt;83,"L",IF(T2&lt;205,"M","H"))</f>
+        <f t="shared" ref="U2:U32" si="1">IF(T2&lt;83,"L",IF(T2&lt;205,"M","H"))</f>
         <v>H</v>
       </c>
       <c r="V2" s="11" t="str">
-        <f t="shared" ref="V2:V34" si="1">IF(S2&lt;=20,"Level 0",IF(S2&lt;=100,"Level 1",IF(S2&lt;=300,"Level 2","Level 3")))</f>
-        <v>Level 2</v>
+        <f t="shared" ref="V2:V33" si="2">IF(S2&lt;=20,"Level 0",IF(S2&lt;=100,"Level 1",IF(S2&lt;=300,"Level 2","Level 3")))</f>
+        <v>Level 0</v>
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="12" t="s">
         <v>75</v>
       </c>
@@ -1864,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>189</v>
@@ -1881,8 +1865,8 @@
       <c r="J3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>56</v>
+      <c r="K3" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>179</v>
@@ -1891,38 +1875,38 @@
         <v>11</v>
       </c>
       <c r="N3" s="23">
-        <v>13501007841</v>
+        <v>18501959715</v>
       </c>
       <c r="O3" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P3" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="10">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="R3" s="34">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="S3" s="10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T3" s="32">
-        <f t="shared" ref="T3:T66" si="2">Q3*R3</f>
-        <v>6120</v>
+        <f t="shared" si="0"/>
+        <v>26000</v>
       </c>
       <c r="U3" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>H</v>
       </c>
       <c r="V3" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Level 0</v>
       </c>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
@@ -1936,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>14</v>
@@ -1954,7 +1938,7 @@
         <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>179</v>
@@ -1963,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="23">
-        <v>18501959715</v>
+        <v>13910617612</v>
       </c>
       <c r="O4" s="10">
         <v>16</v>
@@ -1975,26 +1959,26 @@
         <v>400</v>
       </c>
       <c r="R4" s="34">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="S4" s="10">
         <v>0</v>
       </c>
       <c r="T4" s="32">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="U4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V4" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>26000</v>
-      </c>
-      <c r="U4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V4" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 0</v>
       </c>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -2026,7 +2010,7 @@
         <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>179</v>
@@ -2035,38 +2019,38 @@
         <v>11</v>
       </c>
       <c r="N5" s="23">
-        <v>13910617612</v>
+        <v>15810348817</v>
       </c>
       <c r="O5" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P5" s="10">
         <v>25</v>
       </c>
       <c r="Q5" s="10">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R5" s="34">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="S5" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T5" s="32">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="U5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V5" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="U5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V5" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
@@ -2098,47 +2082,47 @@
         <v>73</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" s="23">
-        <v>15810348817</v>
+        <v>13693192834</v>
       </c>
       <c r="O6" s="10">
         <v>12</v>
       </c>
       <c r="P6" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="10">
+        <v>360</v>
+      </c>
+      <c r="R6" s="34">
+        <v>83</v>
+      </c>
+      <c r="S6" s="10">
         <v>300</v>
       </c>
-      <c r="R6" s="34">
-        <v>33</v>
-      </c>
-      <c r="S6" s="10">
-        <v>30</v>
-      </c>
       <c r="T6" s="32">
+        <f t="shared" si="0"/>
+        <v>29880</v>
+      </c>
+      <c r="U6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V6" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>9900</v>
-      </c>
-      <c r="U6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V6" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 2</v>
       </c>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="12" t="s">
         <v>75</v>
       </c>
@@ -2170,16 +2154,16 @@
         <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" s="23">
-        <v>13693192834</v>
+        <v>13911036089</v>
       </c>
       <c r="O7" s="10">
         <v>12</v>
@@ -2191,26 +2175,26 @@
         <v>360</v>
       </c>
       <c r="R7" s="34">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="S7" s="10">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T7" s="32">
+        <f t="shared" si="0"/>
+        <v>15840</v>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V7" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>29880</v>
-      </c>
-      <c r="U7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="12" t="s">
         <v>75</v>
       </c>
@@ -2242,47 +2226,47 @@
         <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="23">
-        <v>13911036089</v>
+        <v>13621091661</v>
       </c>
       <c r="O8" s="10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P8" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="10">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="R8" s="34">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="S8" s="10">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="T8" s="32">
+        <f t="shared" si="0"/>
+        <v>23200</v>
+      </c>
+      <c r="U8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V8" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>15840</v>
-      </c>
-      <c r="U8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 2</v>
       </c>
       <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="12" t="s">
         <v>75</v>
       </c>
@@ -2314,47 +2298,47 @@
         <v>73</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" s="23">
-        <v>13621091661</v>
+        <v>13699282974</v>
       </c>
       <c r="O9" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P9" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="10">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R9" s="34">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="S9" s="10">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="T9" s="32">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="U9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V9" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>23200</v>
-      </c>
-      <c r="U9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="12" t="s">
         <v>75</v>
       </c>
@@ -2386,47 +2370,47 @@
         <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N10" s="23">
-        <v>13699282974</v>
+        <v>18610046562</v>
       </c>
       <c r="O10" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P10" s="10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="10">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="R10" s="34">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="S10" s="10">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="T10" s="32">
+        <f t="shared" si="0"/>
+        <v>4680</v>
+      </c>
+      <c r="U10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V10" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="U10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 2</v>
       </c>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="12" t="s">
         <v>75</v>
       </c>
@@ -2458,47 +2442,47 @@
         <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11" s="23">
-        <v>18610046562</v>
+        <v>13691179097</v>
       </c>
       <c r="O11" s="10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P11" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="10">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="R11" s="34">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S11" s="10">
-        <v>120</v>
+        <v>356</v>
       </c>
       <c r="T11" s="32">
+        <f t="shared" si="0"/>
+        <v>23200</v>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V11" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>4680</v>
-      </c>
-      <c r="U11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 2</v>
+        <v>Level 3</v>
       </c>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="12" t="s">
         <v>75</v>
       </c>
@@ -2530,7 +2514,7 @@
         <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>179</v>
@@ -2539,38 +2523,38 @@
         <v>10</v>
       </c>
       <c r="N12" s="23">
-        <v>13691179097</v>
+        <v>13366165511</v>
       </c>
       <c r="O12" s="10">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P12" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="10">
-        <v>400</v>
+        <v>1080</v>
       </c>
       <c r="R12" s="34">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="S12" s="10">
-        <v>356</v>
+        <v>1200</v>
       </c>
       <c r="T12" s="32">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="U12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V12" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>23200</v>
-      </c>
-      <c r="U12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V12" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 3</v>
       </c>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="12" t="s">
         <v>75</v>
       </c>
@@ -2602,47 +2586,47 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13" s="23">
-        <v>13366165511</v>
+        <v>13661067666</v>
       </c>
       <c r="O13" s="10">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="P13" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="10">
-        <v>1080</v>
+        <v>400</v>
       </c>
       <c r="R13" s="34">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="S13" s="10">
-        <v>1200</v>
+        <v>85</v>
       </c>
       <c r="T13" s="32">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="U13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V13" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>54000</v>
-      </c>
-      <c r="U13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V13" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 3</v>
+        <v>Level 1</v>
       </c>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="12" t="s">
         <v>75</v>
       </c>
@@ -2674,7 +2658,7 @@
         <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>179</v>
@@ -2683,38 +2667,38 @@
         <v>11</v>
       </c>
       <c r="N14" s="23">
-        <v>13661067666</v>
+        <v>13699282532</v>
       </c>
       <c r="O14" s="10">
         <v>16</v>
       </c>
       <c r="P14" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="10">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="R14" s="34">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="S14" s="10">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="T14" s="32">
+        <f t="shared" si="0"/>
+        <v>16800</v>
+      </c>
+      <c r="U14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V14" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-      <c r="U14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 2</v>
       </c>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="12" t="s">
         <v>75</v>
       </c>
@@ -2746,47 +2730,47 @@
         <v>73</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" s="23">
-        <v>13699282532</v>
+        <v>13801383209</v>
       </c>
       <c r="O15" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P15" s="10">
         <v>30</v>
       </c>
       <c r="Q15" s="10">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="R15" s="34">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S15" s="10">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="T15" s="32">
+        <f t="shared" si="0"/>
+        <v>25800</v>
+      </c>
+      <c r="U15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V15" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>16800</v>
-      </c>
-      <c r="U15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V15" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 2</v>
       </c>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="12" t="s">
         <v>75</v>
       </c>
@@ -2818,7 +2802,7 @@
         <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>179</v>
@@ -2827,38 +2811,38 @@
         <v>10</v>
       </c>
       <c r="N16" s="23">
-        <v>13801383209</v>
+        <v>13681214716</v>
       </c>
       <c r="O16" s="10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P16" s="10">
         <v>30</v>
       </c>
       <c r="Q16" s="10">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="R16" s="34">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="S16" s="10">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="T16" s="32">
+        <f t="shared" si="0"/>
+        <v>12960</v>
+      </c>
+      <c r="U16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V16" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>25800</v>
-      </c>
-      <c r="U16" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V16" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="12" t="s">
         <v>75</v>
       </c>
@@ -2890,47 +2874,47 @@
         <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N17" s="23">
-        <v>13681214716</v>
+        <v>13910505778</v>
       </c>
       <c r="O17" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P17" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="10">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="R17" s="34">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="S17" s="10">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T17" s="32">
+        <f t="shared" si="0"/>
+        <v>16080</v>
+      </c>
+      <c r="U17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>12960</v>
-      </c>
-      <c r="U17" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V17" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 1</v>
       </c>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="12" t="s">
         <v>75</v>
       </c>
@@ -2962,7 +2946,7 @@
         <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>179</v>
@@ -2971,7 +2955,7 @@
         <v>11</v>
       </c>
       <c r="N18" s="23">
-        <v>13910505778</v>
+        <v>18610433489</v>
       </c>
       <c r="O18" s="10">
         <v>12</v>
@@ -2983,26 +2967,26 @@
         <v>240</v>
       </c>
       <c r="R18" s="34">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="S18" s="10">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="T18" s="32">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
+      <c r="U18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>16080</v>
-      </c>
-      <c r="U18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V18" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 1</v>
       </c>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="12" t="s">
         <v>75</v>
       </c>
@@ -3018,7 +3002,7 @@
       <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -3034,7 +3018,7 @@
         <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>179</v>
@@ -3043,38 +3027,38 @@
         <v>11</v>
       </c>
       <c r="N19" s="23">
-        <v>18610433489</v>
+        <v>13161163269</v>
       </c>
       <c r="O19" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P19" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="10">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="R19" s="34">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S19" s="10">
-        <v>26</v>
+        <v>367</v>
       </c>
       <c r="T19" s="32">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="U19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>5040</v>
-      </c>
-      <c r="U19" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V19" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 3</v>
       </c>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
@@ -3106,7 +3090,7 @@
         <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>179</v>
@@ -3115,38 +3099,38 @@
         <v>11</v>
       </c>
       <c r="N20" s="23">
-        <v>13161163269</v>
+        <v>13501139869</v>
       </c>
       <c r="O20" s="10">
         <v>16</v>
       </c>
       <c r="P20" s="10">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>480</v>
+      </c>
+      <c r="R20" s="34">
         <v>25</v>
       </c>
-      <c r="Q20" s="10">
-        <v>400</v>
-      </c>
-      <c r="R20" s="34">
-        <v>30</v>
-      </c>
       <c r="S20" s="10">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="T20" s="32">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="U20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="U20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 3</v>
+        <v>Level 2</v>
       </c>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="12" t="s">
         <v>75</v>
       </c>
@@ -3178,47 +3162,47 @@
         <v>73</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N21" s="23">
-        <v>13501139869</v>
+        <v>13801124342</v>
       </c>
       <c r="O21" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P21" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="10">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="R21" s="34">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="S21" s="10">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="T21" s="32">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="U21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V21" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="U21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V21" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 2</v>
       </c>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="12" t="s">
         <v>75</v>
       </c>
@@ -3250,7 +3234,7 @@
         <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>179</v>
@@ -3259,38 +3243,38 @@
         <v>10</v>
       </c>
       <c r="N22" s="23">
-        <v>13801124342</v>
+        <v>13693128436</v>
       </c>
       <c r="O22" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P22" s="10">
         <v>25</v>
       </c>
       <c r="Q22" s="10">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R22" s="34">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="S22" s="10">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="T22" s="32">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="U22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V22" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="U22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 2</v>
+        <v>Level 0</v>
       </c>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="12" t="s">
         <v>75</v>
       </c>
@@ -3322,7 +3306,7 @@
         <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>179</v>
@@ -3331,38 +3315,38 @@
         <v>10</v>
       </c>
       <c r="N23" s="23">
-        <v>13693128436</v>
+        <v>13801356037</v>
       </c>
       <c r="O23" s="10">
         <v>12</v>
       </c>
       <c r="P23" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="10">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="R23" s="34">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="S23" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="T23" s="32">
+        <f t="shared" si="0"/>
+        <v>16920</v>
+      </c>
+      <c r="U23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V23" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-      <c r="U23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="12" t="s">
         <v>75</v>
       </c>
@@ -3394,7 +3378,7 @@
         <v>73</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>179</v>
@@ -3403,38 +3387,38 @@
         <v>10</v>
       </c>
       <c r="N24" s="23">
-        <v>13801356037</v>
+        <v>13693321400</v>
       </c>
       <c r="O24" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P24" s="10">
         <v>30</v>
       </c>
       <c r="Q24" s="10">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="R24" s="34">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="S24" s="10">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="T24" s="32">
+        <f t="shared" si="0"/>
+        <v>14880</v>
+      </c>
+      <c r="U24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V24" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>16920</v>
-      </c>
-      <c r="U24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 2</v>
       </c>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="12" t="s">
         <v>75</v>
       </c>
@@ -3466,7 +3450,7 @@
         <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>179</v>
@@ -3475,38 +3459,38 @@
         <v>10</v>
       </c>
       <c r="N25" s="23">
-        <v>13693321400</v>
+        <v>18519853579</v>
       </c>
       <c r="O25" s="10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P25" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="10">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="R25" s="34">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S25" s="10">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="T25" s="32">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="U25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V25" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>14880</v>
-      </c>
-      <c r="U25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V25" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="12" t="s">
         <v>75</v>
       </c>
@@ -3538,47 +3522,47 @@
         <v>73</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N26" s="23">
-        <v>18519853579</v>
+        <v>13001229983</v>
       </c>
       <c r="O26" s="10">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P26" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="10">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="R26" s="34">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S26" s="10">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="T26" s="32">
+        <f t="shared" si="0"/>
+        <v>31800</v>
+      </c>
+      <c r="U26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V26" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="U26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 3</v>
       </c>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="12" t="s">
         <v>75</v>
       </c>
@@ -3610,7 +3594,7 @@
         <v>73</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>179</v>
@@ -3619,38 +3603,38 @@
         <v>11</v>
       </c>
       <c r="N27" s="23">
-        <v>13001229983</v>
+        <v>13466795775</v>
       </c>
       <c r="O27" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P27" s="10">
         <v>30</v>
       </c>
       <c r="Q27" s="10">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="R27" s="34">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S27" s="10">
-        <v>530</v>
+        <v>50</v>
       </c>
       <c r="T27" s="32">
+        <f t="shared" si="0"/>
+        <v>20160</v>
+      </c>
+      <c r="U27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V27" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>31800</v>
-      </c>
-      <c r="U27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V27" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 3</v>
+        <v>Level 1</v>
       </c>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="12" t="s">
         <v>75</v>
       </c>
@@ -3682,7 +3666,7 @@
         <v>73</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>179</v>
@@ -3691,38 +3675,38 @@
         <v>11</v>
       </c>
       <c r="N28" s="23">
-        <v>13466795775</v>
+        <v>13693050510</v>
       </c>
       <c r="O28" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P28" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="10">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="R28" s="34">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="S28" s="10">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="T28" s="32">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="U28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V28" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>20160</v>
-      </c>
-      <c r="U28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V28" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 1</v>
       </c>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="12" t="s">
         <v>75</v>
       </c>
@@ -3738,7 +3722,7 @@
       <c r="E29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -3754,47 +3738,47 @@
         <v>73</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N29" s="23">
-        <v>13693050510</v>
+        <v>13901245163</v>
       </c>
       <c r="O29" s="10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P29" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>240</v>
+      </c>
+      <c r="R29" s="34">
         <v>25</v>
       </c>
-      <c r="Q29" s="10">
-        <v>200</v>
-      </c>
-      <c r="R29" s="34">
-        <v>15</v>
-      </c>
       <c r="S29" s="10">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="T29" s="32">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="U29" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V29" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="U29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V29" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 1</v>
       </c>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="12" t="s">
         <v>75</v>
       </c>
@@ -3826,7 +3810,7 @@
         <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>179</v>
@@ -3835,38 +3819,38 @@
         <v>10</v>
       </c>
       <c r="N30" s="23">
-        <v>13901245163</v>
+        <v>13501388421</v>
       </c>
       <c r="O30" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P30" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="10">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="R30" s="34">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="S30" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T30" s="32">
+        <f t="shared" si="0"/>
+        <v>15840</v>
+      </c>
+      <c r="U30" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V30" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-      <c r="U30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V30" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="12" t="s">
         <v>75</v>
       </c>
@@ -3898,47 +3882,47 @@
         <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N31" s="23">
-        <v>13501388421</v>
+        <v>13671188903</v>
       </c>
       <c r="O31" s="10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P31" s="10">
         <v>30</v>
       </c>
       <c r="Q31" s="10">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="R31" s="34">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="S31" s="10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T31" s="32">
+        <f t="shared" si="0"/>
+        <v>21120</v>
+      </c>
+      <c r="U31" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V31" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>15840</v>
-      </c>
-      <c r="U31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V31" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="12" t="s">
         <v>75</v>
       </c>
@@ -3970,7 +3954,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>179</v>
@@ -3979,38 +3963,38 @@
         <v>11</v>
       </c>
       <c r="N32" s="23">
-        <v>13671188903</v>
+        <v>13699293019</v>
       </c>
       <c r="O32" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P32" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="10">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="R32" s="34">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="S32" s="10">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="T32" s="32">
+        <f t="shared" si="0"/>
+        <v>4680</v>
+      </c>
+      <c r="U32" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="V32" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>21120</v>
-      </c>
-      <c r="U32" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V32" s="11" t="str">
-        <f t="shared" si="1"/>
         <v>Level 1</v>
       </c>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" s="12" t="s">
         <v>75</v>
       </c>
@@ -4026,7 +4010,7 @@
       <c r="E33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -4042,7 +4026,7 @@
         <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>179</v>
@@ -4051,38 +4035,38 @@
         <v>11</v>
       </c>
       <c r="N33" s="23">
-        <v>13699293019</v>
+        <v>18611423813</v>
       </c>
       <c r="O33" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P33" s="10">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="10">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="R33" s="34">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="S33" s="10">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="T33" s="32">
+        <f t="shared" si="0"/>
+        <v>12900</v>
+      </c>
+      <c r="U33" s="11" t="str">
+        <f t="shared" ref="U33:U64" si="3">IF(T33&lt;83,"L",IF(T33&lt;205,"M","H"))</f>
+        <v>H</v>
+      </c>
+      <c r="V33" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>4680</v>
-      </c>
-      <c r="U33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="V33" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Level 1</v>
+        <v>Level 2</v>
       </c>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" s="12" t="s">
         <v>75</v>
       </c>
@@ -4114,47 +4098,47 @@
         <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N34" s="23">
-        <v>18611423813</v>
+        <v>13901010368</v>
       </c>
       <c r="O34" s="10">
         <v>12</v>
       </c>
       <c r="P34" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="10">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="R34" s="34">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="S34" s="10">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="T34" s="32">
-        <f t="shared" si="2"/>
-        <v>12900</v>
+        <f t="shared" si="0"/>
+        <v>17040</v>
       </c>
       <c r="U34" s="11" t="str">
-        <f t="shared" ref="U34:U65" si="3">IF(T34&lt;83,"L",IF(T34&lt;205,"M","H"))</f>
+        <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="V34" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V34:V53" si="4">IF(S34&lt;=20,"Level 0",IF(S34&lt;=100,"Level 1",IF(S34&lt;=300,"Level 2","Level 3")))</f>
         <v>Level 2</v>
       </c>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" s="12" t="s">
         <v>75</v>
       </c>
@@ -4186,7 +4170,7 @@
         <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>179</v>
@@ -4195,38 +4179,38 @@
         <v>10</v>
       </c>
       <c r="N35" s="23">
-        <v>13901010368</v>
+        <v>13520186168</v>
       </c>
       <c r="O35" s="10">
         <v>12</v>
       </c>
       <c r="P35" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q35" s="10">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="R35" s="34">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="S35" s="10">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="T35" s="32">
-        <f t="shared" si="2"/>
-        <v>17040</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="U35" s="11" t="str">
         <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="V35" s="11" t="str">
-        <f t="shared" ref="V35:V54" si="4">IF(S35&lt;=20,"Level 0",IF(S35&lt;=100,"Level 1",IF(S35&lt;=300,"Level 2","Level 3")))</f>
+        <f t="shared" si="4"/>
         <v>Level 2</v>
       </c>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23">
       <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
@@ -4242,7 +4226,7 @@
       <c r="E36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -4258,7 +4242,7 @@
         <v>73</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>179</v>
@@ -4267,26 +4251,26 @@
         <v>10</v>
       </c>
       <c r="N36" s="23">
-        <v>13520186168</v>
+        <v>13611246852</v>
       </c>
       <c r="O36" s="10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P36" s="10">
         <v>25</v>
       </c>
       <c r="Q36" s="10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R36" s="34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="S36" s="10">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="T36" s="32">
-        <f t="shared" si="2"/>
-        <v>15000</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="U36" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4294,11 +4278,11 @@
       </c>
       <c r="V36" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 2</v>
+        <v>Level 3</v>
       </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" s="12" t="s">
         <v>75</v>
       </c>
@@ -4330,35 +4314,35 @@
         <v>73</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N37" s="23">
-        <v>13611246852</v>
+        <v>13801251584</v>
       </c>
       <c r="O37" s="10">
         <v>16</v>
       </c>
       <c r="P37" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q37" s="10">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="R37" s="34">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="S37" s="10">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="T37" s="32">
-        <f t="shared" si="2"/>
-        <v>30000</v>
+        <f t="shared" si="0"/>
+        <v>21120</v>
       </c>
       <c r="U37" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4366,11 +4350,11 @@
       </c>
       <c r="V37" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 3</v>
+        <v>Level 2</v>
       </c>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23">
       <c r="A38" s="12" t="s">
         <v>75</v>
       </c>
@@ -4402,35 +4386,35 @@
         <v>73</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N38" s="23">
-        <v>13801251584</v>
+        <v>13701358427</v>
       </c>
       <c r="O38" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P38" s="10">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>300</v>
+      </c>
+      <c r="R38" s="34">
+        <v>20</v>
+      </c>
+      <c r="S38" s="10">
         <v>30</v>
       </c>
-      <c r="Q38" s="10">
-        <v>480</v>
-      </c>
-      <c r="R38" s="34">
-        <v>44</v>
-      </c>
-      <c r="S38" s="10">
-        <v>210</v>
-      </c>
       <c r="T38" s="32">
-        <f t="shared" si="2"/>
-        <v>21120</v>
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="U38" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4438,11 +4422,11 @@
       </c>
       <c r="V38" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" s="12" t="s">
         <v>75</v>
       </c>
@@ -4474,7 +4458,7 @@
         <v>73</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>179</v>
@@ -4483,26 +4467,26 @@
         <v>10</v>
       </c>
       <c r="N39" s="23">
-        <v>13701358427</v>
+        <v>13681265077</v>
       </c>
       <c r="O39" s="10">
         <v>12</v>
       </c>
       <c r="P39" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q39" s="10">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="R39" s="34">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="S39" s="10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T39" s="32">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>15120</v>
       </c>
       <c r="U39" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4514,7 +4498,7 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" s="12" t="s">
         <v>75</v>
       </c>
@@ -4546,7 +4530,7 @@
         <v>73</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>179</v>
@@ -4555,7 +4539,7 @@
         <v>10</v>
       </c>
       <c r="N40" s="23">
-        <v>13681265077</v>
+        <v>13621069620</v>
       </c>
       <c r="O40" s="10">
         <v>12</v>
@@ -4567,14 +4551,14 @@
         <v>360</v>
       </c>
       <c r="R40" s="34">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="S40" s="10">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="T40" s="32">
-        <f t="shared" si="2"/>
-        <v>15120</v>
+        <f t="shared" si="0"/>
+        <v>10080</v>
       </c>
       <c r="U40" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4582,11 +4566,11 @@
       </c>
       <c r="V40" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" s="12" t="s">
         <v>75</v>
       </c>
@@ -4599,10 +4583,10 @@
       <c r="D41" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -4618,35 +4602,35 @@
         <v>73</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N41" s="23">
-        <v>13621069620</v>
+        <v>18301682130</v>
       </c>
       <c r="O41" s="10">
         <v>12</v>
       </c>
       <c r="P41" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="10">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="R41" s="34">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S41" s="10">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="T41" s="32">
-        <f t="shared" si="2"/>
-        <v>10080</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="U41" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4654,11 +4638,11 @@
       </c>
       <c r="V41" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" s="12" t="s">
         <v>75</v>
       </c>
@@ -4671,10 +4655,10 @@
       <c r="D42" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -4690,16 +4674,16 @@
         <v>73</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N42" s="23">
-        <v>18301682130</v>
+        <v>18515300698</v>
       </c>
       <c r="O42" s="10">
         <v>12</v>
@@ -4711,14 +4695,14 @@
         <v>300</v>
       </c>
       <c r="R42" s="34">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="S42" s="10">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="T42" s="32">
-        <f t="shared" si="2"/>
-        <v>15000</v>
+        <f t="shared" si="0"/>
+        <v>11100</v>
       </c>
       <c r="U42" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4726,11 +4710,11 @@
       </c>
       <c r="V42" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" s="12" t="s">
         <v>75</v>
       </c>
@@ -4762,35 +4746,35 @@
         <v>73</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N43" s="23">
-        <v>18515300698</v>
+        <v>13651388752</v>
       </c>
       <c r="O43" s="10">
         <v>12</v>
       </c>
       <c r="P43" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q43" s="10">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="R43" s="34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S43" s="10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="T43" s="32">
-        <f t="shared" si="2"/>
-        <v>11100</v>
+        <f t="shared" si="0"/>
+        <v>11880</v>
       </c>
       <c r="U43" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4798,11 +4782,11 @@
       </c>
       <c r="V43" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" s="12" t="s">
         <v>75</v>
       </c>
@@ -4834,7 +4818,7 @@
         <v>73</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>179</v>
@@ -4843,26 +4827,26 @@
         <v>11</v>
       </c>
       <c r="N44" s="23">
-        <v>13651388752</v>
+        <v>13810644383</v>
       </c>
       <c r="O44" s="10">
         <v>12</v>
       </c>
       <c r="P44" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="10">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="R44" s="34">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="S44" s="10">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T44" s="32">
-        <f t="shared" si="2"/>
-        <v>11880</v>
+        <f t="shared" si="0"/>
+        <v>14400</v>
       </c>
       <c r="U44" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4870,11 +4854,11 @@
       </c>
       <c r="V44" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" s="12" t="s">
         <v>75</v>
       </c>
@@ -4906,7 +4890,7 @@
         <v>73</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>179</v>
@@ -4915,26 +4899,26 @@
         <v>11</v>
       </c>
       <c r="N45" s="23">
-        <v>13810644383</v>
+        <v>15210096319</v>
       </c>
       <c r="O45" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P45" s="10">
         <v>20</v>
       </c>
       <c r="Q45" s="10">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="R45" s="34">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="S45" s="10">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="T45" s="32">
-        <f t="shared" si="2"/>
-        <v>14400</v>
+        <f t="shared" si="0"/>
+        <v>4960</v>
       </c>
       <c r="U45" s="11" t="str">
         <f t="shared" si="3"/>
@@ -4946,7 +4930,7 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" s="12" t="s">
         <v>75</v>
       </c>
@@ -4978,7 +4962,7 @@
         <v>73</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>179</v>
@@ -4987,26 +4971,26 @@
         <v>11</v>
       </c>
       <c r="N46" s="23">
-        <v>15210096319</v>
+        <v>13661122735</v>
       </c>
       <c r="O46" s="10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P46" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q46" s="10">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="R46" s="34">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="S46" s="10">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="T46" s="32">
-        <f t="shared" si="2"/>
-        <v>4960</v>
+        <f t="shared" si="0"/>
+        <v>15200</v>
       </c>
       <c r="U46" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5014,11 +4998,11 @@
       </c>
       <c r="V46" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" s="12" t="s">
         <v>75</v>
       </c>
@@ -5050,35 +5034,35 @@
         <v>73</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N47" s="23">
-        <v>13661122735</v>
+        <v>18610085166</v>
       </c>
       <c r="O47" s="10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P47" s="10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q47" s="10">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R47" s="34">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="S47" s="10">
-        <v>70</v>
+        <v>1603</v>
       </c>
       <c r="T47" s="32">
-        <f t="shared" si="2"/>
-        <v>15200</v>
+        <f t="shared" si="0"/>
+        <v>40800</v>
       </c>
       <c r="U47" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5086,11 +5070,11 @@
       </c>
       <c r="V47" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 1</v>
+        <v>Level 3</v>
       </c>
       <c r="W47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" s="12" t="s">
         <v>75</v>
       </c>
@@ -5122,35 +5106,35 @@
         <v>73</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N48" s="23">
-        <v>18610085166</v>
+        <v>13693574063</v>
       </c>
       <c r="O48" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P48" s="10">
         <v>30</v>
       </c>
       <c r="Q48" s="10">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="R48" s="34">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="S48" s="10">
-        <v>1603</v>
+        <v>0</v>
       </c>
       <c r="T48" s="32">
-        <f t="shared" si="2"/>
-        <v>40800</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="U48" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5158,11 +5142,11 @@
       </c>
       <c r="V48" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 3</v>
+        <v>Level 0</v>
       </c>
       <c r="W48" s="10"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" s="12" t="s">
         <v>75</v>
       </c>
@@ -5194,35 +5178,35 @@
         <v>73</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N49" s="23">
-        <v>13693574063</v>
+        <v>13801388936</v>
       </c>
       <c r="O49" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P49" s="10">
         <v>30</v>
       </c>
       <c r="Q49" s="10">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="R49" s="34">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="S49" s="10">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T49" s="32">
-        <f t="shared" si="2"/>
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>19920</v>
       </c>
       <c r="U49" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5230,11 +5214,11 @@
       </c>
       <c r="V49" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 0</v>
+        <v>Level 3</v>
       </c>
       <c r="W49" s="10"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" s="12" t="s">
         <v>75</v>
       </c>
@@ -5244,7 +5228,7 @@
       <c r="C50" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -5266,35 +5250,35 @@
         <v>73</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N50" s="23">
-        <v>13801388936</v>
+        <v>18511588687</v>
       </c>
       <c r="O50" s="10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P50" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="10">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="R50" s="34">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="S50" s="10">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="T50" s="32">
-        <f t="shared" si="2"/>
-        <v>19920</v>
+        <f t="shared" si="0"/>
+        <v>9920</v>
       </c>
       <c r="U50" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5302,11 +5286,11 @@
       </c>
       <c r="V50" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 3</v>
+        <v>Level 2</v>
       </c>
       <c r="W50" s="10"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="12" t="s">
         <v>75</v>
       </c>
@@ -5338,35 +5322,35 @@
         <v>73</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N51" s="23">
-        <v>18511588687</v>
+        <v>13661231689</v>
       </c>
       <c r="O51" s="10">
         <v>16</v>
       </c>
       <c r="P51" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q51" s="10">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="R51" s="34">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="S51" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T51" s="32">
-        <f t="shared" si="2"/>
-        <v>9920</v>
+        <f t="shared" si="0"/>
+        <v>25920</v>
       </c>
       <c r="U51" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5378,7 +5362,7 @@
       </c>
       <c r="W51" s="10"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" s="12" t="s">
         <v>75</v>
       </c>
@@ -5388,7 +5372,7 @@
       <c r="C52" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -5410,7 +5394,7 @@
         <v>73</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>179</v>
@@ -5419,26 +5403,26 @@
         <v>10</v>
       </c>
       <c r="N52" s="23">
-        <v>13661231689</v>
+        <v>13366695869</v>
       </c>
       <c r="O52" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P52" s="10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="10">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="R52" s="34">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="S52" s="10">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="T52" s="32">
-        <f t="shared" si="2"/>
-        <v>25920</v>
+        <f t="shared" si="0"/>
+        <v>21000</v>
       </c>
       <c r="U52" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5446,11 +5430,11 @@
       </c>
       <c r="V52" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Level 2</v>
+        <v>Level 1</v>
       </c>
       <c r="W52" s="10"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23">
       <c r="A53" s="12" t="s">
         <v>75</v>
       </c>
@@ -5466,7 +5450,7 @@
       <c r="E53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="7" t="s">
@@ -5482,16 +5466,16 @@
         <v>73</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N53" s="23">
-        <v>13366695869</v>
+        <v>15001248319</v>
       </c>
       <c r="O53" s="10">
         <v>12</v>
@@ -5503,14 +5487,14 @@
         <v>300</v>
       </c>
       <c r="R53" s="34">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="S53" s="10">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="T53" s="32">
-        <f t="shared" si="2"/>
-        <v>21000</v>
+        <f t="shared" si="0"/>
+        <v>6900</v>
       </c>
       <c r="U53" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5522,7 +5506,7 @@
       </c>
       <c r="W53" s="10"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" s="12" t="s">
         <v>75</v>
       </c>
@@ -5530,71 +5514,69 @@
         <v>76</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>189</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>63</v>
+        <v>191</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M54" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M54" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N54" s="23">
-        <v>15001248319</v>
-      </c>
-      <c r="O54" s="10">
-        <v>12</v>
-      </c>
-      <c r="P54" s="10">
+      <c r="N54" s="24"/>
+      <c r="O54" s="15">
+        <v>8</v>
+      </c>
+      <c r="P54" s="15">
         <v>25</v>
       </c>
-      <c r="Q54" s="10">
-        <v>300</v>
-      </c>
-      <c r="R54" s="34">
-        <v>23</v>
-      </c>
-      <c r="S54" s="10">
-        <v>36</v>
+      <c r="Q54" s="15">
+        <v>200</v>
+      </c>
+      <c r="R54" s="35">
+        <v>75</v>
+      </c>
+      <c r="S54" s="15">
+        <v>31</v>
       </c>
       <c r="T54" s="32">
-        <f t="shared" si="2"/>
-        <v>6900</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="U54" s="11" t="str">
         <f t="shared" si="3"/>
         <v>H</v>
       </c>
       <c r="V54" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="V54:V117" si="5">IF(S54&lt;=20,"Level 0",IF(S54&lt;=100,"Level 1",IF(S54&lt;=300,"Level 2","Level 3")))</f>
         <v>Level 1</v>
       </c>
-      <c r="W54" s="10"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W54" s="15"/>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="12" t="s">
         <v>75</v>
       </c>
@@ -5626,13 +5608,13 @@
         <v>191</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>184</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N55" s="24"/>
       <c r="O55" s="15">
@@ -5648,10 +5630,10 @@
         <v>75</v>
       </c>
       <c r="S55" s="15">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="T55" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="U55" s="11" t="str">
@@ -5659,12 +5641,12 @@
         <v>H</v>
       </c>
       <c r="V55" s="11" t="str">
-        <f t="shared" ref="V55:V118" si="5">IF(S55&lt;=20,"Level 0",IF(S55&lt;=100,"Level 1",IF(S55&lt;=300,"Level 2","Level 3")))</f>
-        <v>Level 1</v>
+        <f t="shared" si="5"/>
+        <v>Level 0</v>
       </c>
       <c r="W55" s="15"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23">
       <c r="A56" s="12" t="s">
         <v>75</v>
       </c>
@@ -5675,10 +5657,10 @@
         <v>77</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>81</v>
@@ -5696,33 +5678,33 @@
         <v>191</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N56" s="24"/>
       <c r="O56" s="15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P56" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q56" s="15">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="R56" s="35">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="S56" s="15">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="T56" s="32">
-        <f t="shared" si="2"/>
-        <v>15000</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="U56" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5730,11 +5712,11 @@
       </c>
       <c r="V56" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23">
       <c r="A57" s="12" t="s">
         <v>75</v>
       </c>
@@ -5745,10 +5727,10 @@
         <v>77</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>81</v>
@@ -5757,7 +5739,7 @@
         <v>189</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>82</v>
@@ -5766,45 +5748,45 @@
         <v>191</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N57" s="24"/>
       <c r="O57" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P57" s="15">
         <v>30</v>
       </c>
       <c r="Q57" s="15">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R57" s="35">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S57" s="15">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="T57" s="32">
-        <f t="shared" si="2"/>
-        <v>30000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U57" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V57" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 2</v>
+        <v>Level 0</v>
       </c>
       <c r="W57" s="15"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23">
       <c r="A58" s="12" t="s">
         <v>75</v>
       </c>
@@ -5815,7 +5797,7 @@
         <v>77</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>80</v>
@@ -5836,32 +5818,34 @@
         <v>191</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="N58" s="24">
+        <v>13699164283</v>
+      </c>
       <c r="O58" s="15">
         <v>0</v>
       </c>
       <c r="P58" s="15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="15">
         <v>0</v>
       </c>
       <c r="R58" s="35">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S58" s="15">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="T58" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U58" s="11" t="str">
@@ -5870,11 +5854,11 @@
       </c>
       <c r="V58" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W58" s="15"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23">
       <c r="A59" s="12" t="s">
         <v>75</v>
       </c>
@@ -5885,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>80</v>
@@ -5897,7 +5881,7 @@
         <v>189</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>82</v>
@@ -5906,39 +5890,39 @@
         <v>191</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N59" s="24">
-        <v>13699164283</v>
+        <v>15801421881</v>
       </c>
       <c r="O59" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P59" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q59" s="15">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="R59" s="35">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S59" s="15">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="T59" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>36000</v>
       </c>
       <c r="U59" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V59" s="11" t="str">
         <f t="shared" si="5"/>
@@ -5946,7 +5930,7 @@
       </c>
       <c r="W59" s="15"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23">
       <c r="A60" s="12" t="s">
         <v>75</v>
       </c>
@@ -5957,7 +5941,7 @@
         <v>77</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>80</v>
@@ -5978,35 +5962,33 @@
         <v>191</v>
       </c>
       <c r="K60" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M60" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N60" s="24">
-        <v>15801421881</v>
-      </c>
+      <c r="N60" s="24"/>
       <c r="O60" s="15">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P60" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q60" s="15">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="R60" s="35">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="S60" s="15">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T60" s="32">
-        <f t="shared" si="2"/>
-        <v>36000</v>
+        <f t="shared" si="0"/>
+        <v>12000</v>
       </c>
       <c r="U60" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6018,7 +6000,7 @@
       </c>
       <c r="W60" s="15"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23">
       <c r="A61" s="12" t="s">
         <v>75</v>
       </c>
@@ -6032,7 +6014,7 @@
         <v>79</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>81</v>
@@ -6041,7 +6023,7 @@
         <v>189</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>82</v>
@@ -6050,33 +6032,35 @@
         <v>191</v>
       </c>
       <c r="K61" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N61" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="N61" s="24">
+        <v>13683222908</v>
+      </c>
       <c r="O61" s="15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P61" s="15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q61" s="15">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="R61" s="35">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S61" s="15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T61" s="32">
-        <f t="shared" si="2"/>
-        <v>12000</v>
+        <f t="shared" si="0"/>
+        <v>7000</v>
       </c>
       <c r="U61" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6084,11 +6068,11 @@
       </c>
       <c r="V61" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W61" s="15"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23">
       <c r="A62" s="12" t="s">
         <v>75</v>
       </c>
@@ -6099,10 +6083,10 @@
         <v>77</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>81</v>
@@ -6120,7 +6104,7 @@
         <v>191</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>179</v>
@@ -6129,26 +6113,26 @@
         <v>10</v>
       </c>
       <c r="N62" s="24">
-        <v>13683222908</v>
+        <v>13810862755</v>
       </c>
       <c r="O62" s="15">
         <v>4</v>
       </c>
       <c r="P62" s="15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q62" s="15">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R62" s="35">
         <v>70</v>
       </c>
       <c r="S62" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T62" s="32">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <f t="shared" si="0"/>
+        <v>4200</v>
       </c>
       <c r="U62" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6160,7 +6144,7 @@
       </c>
       <c r="W62" s="15"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23">
       <c r="A63" s="12" t="s">
         <v>75</v>
       </c>
@@ -6192,35 +6176,35 @@
         <v>191</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N63" s="24">
-        <v>13810862755</v>
+        <v>15210849352</v>
       </c>
       <c r="O63" s="15">
         <v>4</v>
       </c>
       <c r="P63" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q63" s="15">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R63" s="35">
         <v>70</v>
       </c>
       <c r="S63" s="15">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="T63" s="32">
-        <f t="shared" si="2"/>
-        <v>4200</v>
+        <f t="shared" si="0"/>
+        <v>8400</v>
       </c>
       <c r="U63" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6228,11 +6212,11 @@
       </c>
       <c r="V63" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W63" s="15"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23">
       <c r="A64" s="12" t="s">
         <v>75</v>
       </c>
@@ -6264,35 +6248,33 @@
         <v>191</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" s="24">
-        <v>15210849352</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N64" s="24"/>
       <c r="O64" s="15">
         <v>4</v>
       </c>
       <c r="P64" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q64" s="15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R64" s="35">
         <v>70</v>
       </c>
       <c r="S64" s="15">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="T64" s="32">
-        <f t="shared" si="2"/>
-        <v>8400</v>
+        <f t="shared" si="0"/>
+        <v>7000</v>
       </c>
       <c r="U64" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6300,11 +6282,11 @@
       </c>
       <c r="V64" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W64" s="15"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23">
       <c r="A65" s="12" t="s">
         <v>75</v>
       </c>
@@ -6318,7 +6300,7 @@
         <v>78</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>81</v>
@@ -6327,7 +6309,7 @@
         <v>189</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>82</v>
@@ -6336,36 +6318,36 @@
         <v>191</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N65" s="24"/>
       <c r="O65" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P65" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q65" s="15">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R65" s="35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S65" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T65" s="32">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <f t="shared" si="0"/>
+        <v>2400</v>
       </c>
       <c r="U65" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U65:U96" si="6">IF(T65&lt;83,"L",IF(T65&lt;205,"M","H"))</f>
         <v>H</v>
       </c>
       <c r="V65" s="11" t="str">
@@ -6374,7 +6356,7 @@
       </c>
       <c r="W65" s="15"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23">
       <c r="A66" s="12" t="s">
         <v>75</v>
       </c>
@@ -6388,7 +6370,7 @@
         <v>78</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>81</v>
@@ -6397,7 +6379,7 @@
         <v>189</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>82</v>
@@ -6406,37 +6388,39 @@
         <v>191</v>
       </c>
       <c r="K66" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N66" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="N66" s="24">
+        <v>13501276457</v>
+      </c>
       <c r="O66" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="15">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R66" s="35">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S66" s="15">
         <v>0</v>
       </c>
       <c r="T66" s="32">
-        <f t="shared" si="2"/>
-        <v>2400</v>
+        <f t="shared" ref="T66:T129" si="7">Q66*R66</f>
+        <v>0</v>
       </c>
       <c r="U66" s="11" t="str">
-        <f t="shared" ref="U66:U97" si="6">IF(T66&lt;83,"L",IF(T66&lt;205,"M","H"))</f>
-        <v>H</v>
+        <f t="shared" si="6"/>
+        <v>L</v>
       </c>
       <c r="V66" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6444,7 +6428,7 @@
       </c>
       <c r="W66" s="15"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23">
       <c r="A67" s="12" t="s">
         <v>75</v>
       </c>
@@ -6467,7 +6451,7 @@
         <v>189</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>82</v>
@@ -6476,39 +6460,37 @@
         <v>191</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N67" s="24">
-        <v>13501276457</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N67" s="24"/>
       <c r="O67" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q67" s="15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R67" s="35">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S67" s="15">
         <v>0</v>
       </c>
       <c r="T67" s="32">
-        <f t="shared" ref="T67:T130" si="7">Q67*R67</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4900</v>
       </c>
       <c r="U67" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V67" s="11" t="str">
         <f t="shared" si="5"/>
@@ -6516,7 +6498,7 @@
       </c>
       <c r="W67" s="15"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23">
       <c r="A68" s="12" t="s">
         <v>75</v>
       </c>
@@ -6548,33 +6530,35 @@
         <v>191</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N68" s="24"/>
+      <c r="N68" s="24">
+        <v>13651280958</v>
+      </c>
       <c r="O68" s="15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P68" s="15">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q68" s="15">
-        <v>70</v>
+        <v>640</v>
       </c>
       <c r="R68" s="35">
         <v>70</v>
       </c>
       <c r="S68" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T68" s="32">
         <f t="shared" si="7"/>
-        <v>4900</v>
+        <v>44800</v>
       </c>
       <c r="U68" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6586,7 +6570,7 @@
       </c>
       <c r="W68" s="15"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23">
       <c r="A69" s="12" t="s">
         <v>75</v>
       </c>
@@ -6597,7 +6581,7 @@
         <v>77</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>80</v>
@@ -6609,7 +6593,7 @@
         <v>189</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>82</v>
@@ -6618,35 +6602,35 @@
         <v>191</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N69" s="24">
-        <v>13651280958</v>
+        <v>13501237802</v>
       </c>
       <c r="O69" s="15">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P69" s="15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q69" s="15">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="R69" s="35">
         <v>70</v>
       </c>
       <c r="S69" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T69" s="32">
         <f t="shared" si="7"/>
-        <v>44800</v>
+        <v>25200</v>
       </c>
       <c r="U69" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6658,7 +6642,7 @@
       </c>
       <c r="W69" s="15"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23">
       <c r="A70" s="12" t="s">
         <v>75</v>
       </c>
@@ -6669,7 +6653,7 @@
         <v>77</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>80</v>
@@ -6690,7 +6674,7 @@
         <v>191</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>179</v>
@@ -6699,7 +6683,7 @@
         <v>10</v>
       </c>
       <c r="N70" s="24">
-        <v>13501237802</v>
+        <v>13520254001</v>
       </c>
       <c r="O70" s="15">
         <v>12</v>
@@ -6714,7 +6698,7 @@
         <v>70</v>
       </c>
       <c r="S70" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T70" s="32">
         <f t="shared" si="7"/>
@@ -6730,7 +6714,7 @@
       </c>
       <c r="W70" s="15"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23">
       <c r="A71" s="12" t="s">
         <v>75</v>
       </c>
@@ -6762,35 +6746,33 @@
         <v>191</v>
       </c>
       <c r="K71" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N71" s="24">
-        <v>13520254001</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N71" s="24"/>
       <c r="O71" s="15">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P71" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q71" s="15">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="R71" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S71" s="15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T71" s="32">
         <f t="shared" si="7"/>
-        <v>25200</v>
+        <v>5625</v>
       </c>
       <c r="U71" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6802,7 +6784,7 @@
       </c>
       <c r="W71" s="15"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23">
       <c r="A72" s="12" t="s">
         <v>75</v>
       </c>
@@ -6813,7 +6795,7 @@
         <v>77</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>80</v>
@@ -6834,7 +6816,7 @@
         <v>191</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>179</v>
@@ -6844,23 +6826,23 @@
       </c>
       <c r="N72" s="24"/>
       <c r="O72" s="15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P72" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q72" s="15">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="R72" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S72" s="15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="T72" s="32">
         <f t="shared" si="7"/>
-        <v>5625</v>
+        <v>25200</v>
       </c>
       <c r="U72" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6868,11 +6850,11 @@
       </c>
       <c r="V72" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W72" s="15"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23">
       <c r="A73" s="12" t="s">
         <v>75</v>
       </c>
@@ -6883,7 +6865,7 @@
         <v>77</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>80</v>
@@ -6895,7 +6877,7 @@
         <v>189</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>82</v>
@@ -6904,33 +6886,33 @@
         <v>191</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M73" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N73" s="24"/>
       <c r="O73" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P73" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q73" s="15">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="R73" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S73" s="15">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="T73" s="32">
         <f t="shared" si="7"/>
-        <v>25200</v>
+        <v>30000</v>
       </c>
       <c r="U73" s="11" t="str">
         <f t="shared" si="6"/>
@@ -6942,7 +6924,7 @@
       </c>
       <c r="W73" s="15"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23">
       <c r="A74" s="12" t="s">
         <v>75</v>
       </c>
@@ -6974,33 +6956,33 @@
         <v>191</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N74" s="24"/>
       <c r="O74" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P74" s="15">
         <v>25</v>
       </c>
       <c r="Q74" s="15">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R74" s="35">
         <v>75</v>
       </c>
       <c r="S74" s="15">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="T74" s="32">
         <f t="shared" si="7"/>
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="U74" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7008,11 +6990,11 @@
       </c>
       <c r="V74" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W74" s="15"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23">
       <c r="A75" s="12" t="s">
         <v>75</v>
       </c>
@@ -7035,7 +7017,7 @@
         <v>189</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>82</v>
@@ -7044,33 +7026,35 @@
         <v>191</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M75" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N75" s="24"/>
+      <c r="N75" s="24">
+        <v>13910553936</v>
+      </c>
       <c r="O75" s="15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P75" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q75" s="15">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="R75" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S75" s="15">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="T75" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="U75" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7078,11 +7062,11 @@
       </c>
       <c r="V75" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W75" s="15"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23">
       <c r="A76" s="12" t="s">
         <v>75</v>
       </c>
@@ -7114,7 +7098,7 @@
         <v>191</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>179</v>
@@ -7123,26 +7107,26 @@
         <v>10</v>
       </c>
       <c r="N76" s="24">
-        <v>13910553936</v>
+        <v>13501260739</v>
       </c>
       <c r="O76" s="15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P76" s="15">
         <v>30</v>
       </c>
       <c r="Q76" s="15">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="R76" s="35">
         <v>70</v>
       </c>
       <c r="S76" s="15">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="T76" s="32">
         <f t="shared" si="7"/>
-        <v>42000</v>
+        <v>25200</v>
       </c>
       <c r="U76" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7150,11 +7134,11 @@
       </c>
       <c r="V76" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W76" s="15"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23">
       <c r="A77" s="12" t="s">
         <v>75</v>
       </c>
@@ -7177,7 +7161,7 @@
         <v>189</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>82</v>
@@ -7186,35 +7170,33 @@
         <v>191</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M77" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N77" s="24">
-        <v>13501260739</v>
-      </c>
+      <c r="N77" s="24"/>
       <c r="O77" s="15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P77" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q77" s="15">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="R77" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S77" s="15">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="T77" s="32">
         <f t="shared" si="7"/>
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="U77" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7222,11 +7204,11 @@
       </c>
       <c r="V77" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W77" s="15"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23">
       <c r="A78" s="12" t="s">
         <v>75</v>
       </c>
@@ -7237,7 +7219,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>80</v>
@@ -7249,7 +7231,7 @@
         <v>189</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>82</v>
@@ -7258,33 +7240,33 @@
         <v>191</v>
       </c>
       <c r="K78" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N78" s="24"/>
       <c r="O78" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P78" s="15">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q78" s="15">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="R78" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S78" s="15">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="T78" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>2450</v>
       </c>
       <c r="U78" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7292,11 +7274,11 @@
       </c>
       <c r="V78" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 2</v>
+        <v>Level 0</v>
       </c>
       <c r="W78" s="15"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23">
       <c r="A79" s="12" t="s">
         <v>75</v>
       </c>
@@ -7307,7 +7289,7 @@
         <v>77</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>80</v>
@@ -7319,7 +7301,7 @@
         <v>189</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>82</v>
@@ -7328,33 +7310,33 @@
         <v>191</v>
       </c>
       <c r="K79" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N79" s="24"/>
       <c r="O79" s="15">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P79" s="15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q79" s="15">
-        <v>35</v>
+        <v>480</v>
       </c>
       <c r="R79" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S79" s="15">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="T79" s="32">
         <f t="shared" si="7"/>
-        <v>2450</v>
+        <v>36000</v>
       </c>
       <c r="U79" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7366,7 +7348,7 @@
       </c>
       <c r="W79" s="15"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23">
       <c r="A80" s="12" t="s">
         <v>75</v>
       </c>
@@ -7398,33 +7380,33 @@
         <v>191</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N80" s="24"/>
       <c r="O80" s="15">
+        <v>8</v>
+      </c>
+      <c r="P80" s="15">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="15">
+        <v>200</v>
+      </c>
+      <c r="R80" s="35">
+        <v>75</v>
+      </c>
+      <c r="S80" s="15">
         <v>16</v>
-      </c>
-      <c r="P80" s="15">
-        <v>30</v>
-      </c>
-      <c r="Q80" s="15">
-        <v>480</v>
-      </c>
-      <c r="R80" s="35">
-        <v>75</v>
-      </c>
-      <c r="S80" s="15">
-        <v>0</v>
       </c>
       <c r="T80" s="32">
         <f t="shared" si="7"/>
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="U80" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7436,7 +7418,7 @@
       </c>
       <c r="W80" s="15"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23">
       <c r="A81" s="12" t="s">
         <v>75</v>
       </c>
@@ -7447,19 +7429,19 @@
         <v>77</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>189</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>82</v>
@@ -7468,33 +7450,35 @@
         <v>191</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N81" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="N81" s="24">
+        <v>18511273617</v>
+      </c>
       <c r="O81" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P81" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q81" s="15">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="R81" s="35">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="S81" s="15">
         <v>16</v>
       </c>
       <c r="T81" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="U81" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7506,7 +7490,7 @@
       </c>
       <c r="W81" s="15"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23">
       <c r="A82" s="12" t="s">
         <v>75</v>
       </c>
@@ -7517,13 +7501,13 @@
         <v>77</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>189</v>
@@ -7538,35 +7522,33 @@
         <v>191</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N82" s="24">
-        <v>18511273617</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N82" s="24"/>
       <c r="O82" s="15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P82" s="15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q82" s="15">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="R82" s="35">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S82" s="15">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="T82" s="32">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>25200</v>
       </c>
       <c r="U82" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7574,11 +7556,11 @@
       </c>
       <c r="V82" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W82" s="15"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23">
       <c r="A83" s="12" t="s">
         <v>75</v>
       </c>
@@ -7601,7 +7583,7 @@
         <v>189</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>82</v>
@@ -7610,33 +7592,33 @@
         <v>191</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N83" s="24"/>
       <c r="O83" s="15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P83" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q83" s="15">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="R83" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S83" s="15">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="T83" s="32">
         <f t="shared" si="7"/>
-        <v>25200</v>
+        <v>15000</v>
       </c>
       <c r="U83" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7644,11 +7626,11 @@
       </c>
       <c r="V83" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W83" s="15"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23">
       <c r="A84" s="12" t="s">
         <v>75</v>
       </c>
@@ -7680,33 +7662,33 @@
         <v>191</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N84" s="24"/>
       <c r="O84" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P84" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q84" s="15">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="R84" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S84" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T84" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>8400</v>
       </c>
       <c r="U84" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7718,7 +7700,7 @@
       </c>
       <c r="W84" s="15"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23">
       <c r="A85" s="12" t="s">
         <v>75</v>
       </c>
@@ -7729,7 +7711,7 @@
         <v>77</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>80</v>
@@ -7741,7 +7723,7 @@
         <v>189</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>82</v>
@@ -7750,33 +7732,35 @@
         <v>191</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N85" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="N85" s="24">
+        <v>13701286993</v>
+      </c>
       <c r="O85" s="15">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P85" s="15">
         <v>30</v>
       </c>
       <c r="Q85" s="15">
-        <v>120</v>
+        <v>840</v>
       </c>
       <c r="R85" s="35">
         <v>70</v>
       </c>
       <c r="S85" s="15">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="T85" s="32">
         <f t="shared" si="7"/>
-        <v>8400</v>
+        <v>58800</v>
       </c>
       <c r="U85" s="11" t="str">
         <f t="shared" si="6"/>
@@ -7784,11 +7768,11 @@
       </c>
       <c r="V85" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W85" s="15"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23">
       <c r="A86" s="12" t="s">
         <v>75</v>
       </c>
@@ -7799,7 +7783,7 @@
         <v>77</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>80</v>
@@ -7820,7 +7804,7 @@
         <v>191</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>179</v>
@@ -7828,39 +7812,37 @@
       <c r="M86" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N86" s="24">
-        <v>13701286993</v>
-      </c>
+      <c r="N86" s="24"/>
       <c r="O86" s="15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P86" s="15">
         <v>30</v>
       </c>
       <c r="Q86" s="15">
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="R86" s="35">
         <v>70</v>
       </c>
       <c r="S86" s="15">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="T86" s="32">
         <f t="shared" si="7"/>
-        <v>58800</v>
+        <v>0</v>
       </c>
       <c r="U86" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V86" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 2</v>
+        <v>Level 0</v>
       </c>
       <c r="W86" s="15"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23">
       <c r="A87" s="12" t="s">
         <v>75</v>
       </c>
@@ -7871,7 +7853,7 @@
         <v>77</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>80</v>
@@ -7892,7 +7874,7 @@
         <v>191</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>179</v>
@@ -7902,27 +7884,27 @@
       </c>
       <c r="N87" s="24"/>
       <c r="O87" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P87" s="15">
         <v>30</v>
       </c>
       <c r="Q87" s="15">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="R87" s="35">
         <v>70</v>
       </c>
       <c r="S87" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T87" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="U87" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V87" s="11" t="str">
         <f t="shared" si="5"/>
@@ -7930,7 +7912,7 @@
       </c>
       <c r="W87" s="15"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23">
       <c r="A88" s="12" t="s">
         <v>75</v>
       </c>
@@ -7941,7 +7923,7 @@
         <v>77</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>80</v>
@@ -7953,7 +7935,7 @@
         <v>189</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>82</v>
@@ -7962,10 +7944,10 @@
         <v>191</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M88" s="13" t="s">
         <v>10</v>
@@ -7975,20 +7957,20 @@
         <v>8</v>
       </c>
       <c r="P88" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q88" s="15">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="R88" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S88" s="15">
         <v>4</v>
       </c>
       <c r="T88" s="32">
         <f t="shared" si="7"/>
-        <v>16800</v>
+        <v>15000</v>
       </c>
       <c r="U88" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8000,7 +7982,7 @@
       </c>
       <c r="W88" s="15"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23">
       <c r="A89" s="12" t="s">
         <v>75</v>
       </c>
@@ -8032,13 +8014,13 @@
         <v>191</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N89" s="24"/>
       <c r="O89" s="15">
@@ -8054,7 +8036,7 @@
         <v>75</v>
       </c>
       <c r="S89" s="15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="T89" s="32">
         <f t="shared" si="7"/>
@@ -8066,11 +8048,11 @@
       </c>
       <c r="V89" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W89" s="15"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23">
       <c r="A90" s="12" t="s">
         <v>75</v>
       </c>
@@ -8102,7 +8084,7 @@
         <v>191</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>184</v>
@@ -8112,23 +8094,23 @@
       </c>
       <c r="N90" s="24"/>
       <c r="O90" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P90" s="15">
         <v>25</v>
       </c>
       <c r="Q90" s="15">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R90" s="35">
         <v>75</v>
       </c>
       <c r="S90" s="15">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="T90" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="U90" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8140,7 +8122,7 @@
       </c>
       <c r="W90" s="15"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23">
       <c r="A91" s="12" t="s">
         <v>75</v>
       </c>
@@ -8163,7 +8145,7 @@
         <v>189</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>82</v>
@@ -8172,33 +8154,33 @@
         <v>191</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N91" s="24"/>
       <c r="O91" s="15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P91" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q91" s="15">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="R91" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S91" s="15">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="T91" s="32">
         <f t="shared" si="7"/>
-        <v>30000</v>
+        <v>8400</v>
       </c>
       <c r="U91" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8206,11 +8188,11 @@
       </c>
       <c r="V91" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W91" s="15"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23">
       <c r="A92" s="12" t="s">
         <v>75</v>
       </c>
@@ -8233,7 +8215,7 @@
         <v>189</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>82</v>
@@ -8242,33 +8224,33 @@
         <v>191</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M92" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N92" s="24"/>
       <c r="O92" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P92" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q92" s="15">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="R92" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S92" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T92" s="32">
         <f t="shared" si="7"/>
-        <v>8400</v>
+        <v>15000</v>
       </c>
       <c r="U92" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8280,7 +8262,7 @@
       </c>
       <c r="W92" s="15"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23">
       <c r="A93" s="12" t="s">
         <v>75</v>
       </c>
@@ -8303,7 +8285,7 @@
         <v>189</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>82</v>
@@ -8312,33 +8294,35 @@
         <v>191</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M93" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N93" s="24"/>
+      <c r="N93" s="24">
+        <v>13611205808</v>
+      </c>
       <c r="O93" s="15">
         <v>8</v>
       </c>
       <c r="P93" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q93" s="15">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="R93" s="35">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="S93" s="15">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="T93" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="U93" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8346,11 +8330,11 @@
       </c>
       <c r="V93" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W93" s="15"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23">
       <c r="A94" s="12" t="s">
         <v>75</v>
       </c>
@@ -8361,7 +8345,7 @@
         <v>77</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>80</v>
@@ -8382,7 +8366,7 @@
         <v>191</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>179</v>
@@ -8390,27 +8374,25 @@
       <c r="M94" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="24">
-        <v>13611205808</v>
-      </c>
+      <c r="N94" s="24"/>
       <c r="O94" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P94" s="15">
         <v>30</v>
       </c>
       <c r="Q94" s="15">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="R94" s="35">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S94" s="15">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="T94" s="32">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>8400</v>
       </c>
       <c r="U94" s="11" t="str">
         <f t="shared" si="6"/>
@@ -8418,11 +8400,11 @@
       </c>
       <c r="V94" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W94" s="15"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23">
       <c r="A95" s="12" t="s">
         <v>75</v>
       </c>
@@ -8454,7 +8436,7 @@
         <v>191</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>179</v>
@@ -8464,27 +8446,27 @@
       </c>
       <c r="N95" s="24"/>
       <c r="O95" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P95" s="15">
         <v>30</v>
       </c>
       <c r="Q95" s="15">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R95" s="35">
         <v>70</v>
       </c>
       <c r="S95" s="15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T95" s="32">
         <f t="shared" si="7"/>
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="U95" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V95" s="11" t="str">
         <f t="shared" si="5"/>
@@ -8492,7 +8474,7 @@
       </c>
       <c r="W95" s="15"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23">
       <c r="A96" s="12" t="s">
         <v>75</v>
       </c>
@@ -8524,7 +8506,7 @@
         <v>191</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>179</v>
@@ -8532,37 +8514,39 @@
       <c r="M96" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N96" s="24"/>
+      <c r="N96" s="24">
+        <v>13601112830</v>
+      </c>
       <c r="O96" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P96" s="15">
         <v>30</v>
       </c>
       <c r="Q96" s="15">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R96" s="35">
         <v>70</v>
       </c>
       <c r="S96" s="15">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="T96" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="U96" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V96" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 3</v>
       </c>
       <c r="W96" s="15"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23">
       <c r="A97" s="12" t="s">
         <v>75</v>
       </c>
@@ -8573,7 +8557,7 @@
         <v>77</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>80</v>
@@ -8585,7 +8569,7 @@
         <v>189</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>82</v>
@@ -8594,47 +8578,45 @@
         <v>191</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M97" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N97" s="24">
-        <v>13601112830</v>
-      </c>
+      <c r="N97" s="24"/>
       <c r="O97" s="15">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P97" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q97" s="15">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="R97" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S97" s="15">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="T97" s="32">
         <f t="shared" si="7"/>
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="U97" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U97:U128" si="8">IF(T97&lt;83,"L",IF(T97&lt;205,"M","H"))</f>
         <v>H</v>
       </c>
       <c r="V97" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 3</v>
+        <v>Level 0</v>
       </c>
       <c r="W97" s="15"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23">
       <c r="A98" s="12" t="s">
         <v>75</v>
       </c>
@@ -8645,7 +8627,7 @@
         <v>77</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>80</v>
@@ -8657,7 +8639,7 @@
         <v>189</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>82</v>
@@ -8666,36 +8648,38 @@
         <v>191</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M98" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N98" s="24"/>
+      <c r="N98" s="24">
+        <v>13910682392</v>
+      </c>
       <c r="O98" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P98" s="15">
         <v>25</v>
       </c>
       <c r="Q98" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R98" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S98" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T98" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="U98" s="11" t="str">
-        <f t="shared" ref="U98:U129" si="8">IF(T98&lt;83,"L",IF(T98&lt;205,"M","H"))</f>
+        <f t="shared" si="8"/>
         <v>H</v>
       </c>
       <c r="V98" s="11" t="str">
@@ -8704,7 +8688,7 @@
       </c>
       <c r="W98" s="15"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23">
       <c r="A99" s="12" t="s">
         <v>75</v>
       </c>
@@ -8727,7 +8711,7 @@
         <v>189</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>82</v>
@@ -8736,35 +8720,35 @@
         <v>191</v>
       </c>
       <c r="K99" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M99" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N99" s="24">
-        <v>13910682392</v>
+        <v>13718219982</v>
       </c>
       <c r="O99" s="15">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P99" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q99" s="15">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="R99" s="35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S99" s="15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="T99" s="32">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="U99" s="11" t="str">
         <f t="shared" si="8"/>
@@ -8772,11 +8756,11 @@
       </c>
       <c r="V99" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W99" s="15"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23">
       <c r="A100" s="12" t="s">
         <v>75</v>
       </c>
@@ -8799,7 +8783,7 @@
         <v>189</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>82</v>
@@ -8808,35 +8792,35 @@
         <v>191</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M100" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N100" s="24">
-        <v>13718219982</v>
+        <v>13810326404</v>
       </c>
       <c r="O100" s="15">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="P100" s="15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q100" s="15">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="R100" s="35">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S100" s="15">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="T100" s="32">
         <f t="shared" si="7"/>
-        <v>45000</v>
+        <v>19600</v>
       </c>
       <c r="U100" s="11" t="str">
         <f t="shared" si="8"/>
@@ -8844,11 +8828,11 @@
       </c>
       <c r="V100" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W100" s="15"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23">
       <c r="A101" s="12" t="s">
         <v>75</v>
       </c>
@@ -8859,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>80</v>
@@ -8871,7 +8855,7 @@
         <v>189</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>82</v>
@@ -8880,35 +8864,33 @@
         <v>191</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M101" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="24">
-        <v>13810326404</v>
-      </c>
+      <c r="N101" s="24"/>
       <c r="O101" s="15">
         <v>8</v>
       </c>
       <c r="P101" s="15">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q101" s="15">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="R101" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S101" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T101" s="32">
         <f t="shared" si="7"/>
-        <v>19600</v>
+        <v>15000</v>
       </c>
       <c r="U101" s="11" t="str">
         <f t="shared" si="8"/>
@@ -8920,7 +8902,7 @@
       </c>
       <c r="W101" s="15"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23">
       <c r="A102" s="12" t="s">
         <v>75</v>
       </c>
@@ -8931,7 +8913,7 @@
         <v>77</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>80</v>
@@ -8943,7 +8925,7 @@
         <v>189</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>82</v>
@@ -8952,33 +8934,35 @@
         <v>191</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N102" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="N102" s="24">
+        <v>13681437274</v>
+      </c>
       <c r="O102" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P102" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q102" s="15">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="R102" s="35">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="S102" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T102" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="U102" s="11" t="str">
         <f t="shared" si="8"/>
@@ -8990,7 +8974,7 @@
       </c>
       <c r="W102" s="15"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23">
       <c r="A103" s="12" t="s">
         <v>75</v>
       </c>
@@ -9001,7 +8985,7 @@
         <v>77</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>80</v>
@@ -9013,7 +8997,7 @@
         <v>189</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>82</v>
@@ -9022,35 +9006,33 @@
         <v>191</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N103" s="24">
-        <v>13681437274</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N103" s="24"/>
       <c r="O103" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P103" s="15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q103" s="15">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="R103" s="35">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="S103" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T103" s="32">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="U103" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9062,7 +9044,7 @@
       </c>
       <c r="W103" s="15"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23">
       <c r="A104" s="12" t="s">
         <v>75</v>
       </c>
@@ -9073,7 +9055,7 @@
         <v>77</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>80</v>
@@ -9085,7 +9067,7 @@
         <v>189</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>82</v>
@@ -9094,33 +9076,33 @@
         <v>191</v>
       </c>
       <c r="K104" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M104" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N104" s="24"/>
       <c r="O104" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P104" s="15">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q104" s="15">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="R104" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S104" s="15">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="T104" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>9800</v>
       </c>
       <c r="U104" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9128,11 +9110,11 @@
       </c>
       <c r="V104" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W104" s="15"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23">
       <c r="A105" s="12" t="s">
         <v>75</v>
       </c>
@@ -9164,33 +9146,33 @@
         <v>191</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N105" s="24"/>
       <c r="O105" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P105" s="15">
         <v>35</v>
       </c>
       <c r="Q105" s="15">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="R105" s="35">
         <v>70</v>
       </c>
       <c r="S105" s="15">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="T105" s="32">
         <f t="shared" si="7"/>
-        <v>9800</v>
+        <v>4900</v>
       </c>
       <c r="U105" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9202,7 +9184,7 @@
       </c>
       <c r="W105" s="15"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23">
       <c r="A106" s="12" t="s">
         <v>75</v>
       </c>
@@ -9225,7 +9207,7 @@
         <v>189</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>82</v>
@@ -9234,33 +9216,33 @@
         <v>191</v>
       </c>
       <c r="K106" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N106" s="24"/>
       <c r="O106" s="15">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P106" s="15">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q106" s="15">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="R106" s="35">
         <v>70</v>
       </c>
       <c r="S106" s="15">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="T106" s="32">
         <f t="shared" si="7"/>
-        <v>4900</v>
+        <v>28000</v>
       </c>
       <c r="U106" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9272,7 +9254,7 @@
       </c>
       <c r="W106" s="15"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23">
       <c r="A107" s="12" t="s">
         <v>75</v>
       </c>
@@ -9283,7 +9265,7 @@
         <v>77</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>80</v>
@@ -9295,7 +9277,7 @@
         <v>189</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>82</v>
@@ -9304,45 +9286,45 @@
         <v>191</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N107" s="24"/>
       <c r="O107" s="15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P107" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="15">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R107" s="35">
         <v>70</v>
       </c>
       <c r="S107" s="15">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T107" s="32">
         <f t="shared" si="7"/>
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="U107" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V107" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W107" s="15"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23">
       <c r="A108" s="12" t="s">
         <v>75</v>
       </c>
@@ -9365,7 +9347,7 @@
         <v>189</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>82</v>
@@ -9374,26 +9356,28 @@
         <v>191</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N108" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="N108" s="24">
+        <v>13910276867</v>
+      </c>
       <c r="O108" s="15">
         <v>0</v>
       </c>
       <c r="P108" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q108" s="15">
         <v>0</v>
       </c>
       <c r="R108" s="35">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S108" s="15">
         <v>0</v>
@@ -9412,7 +9396,7 @@
       </c>
       <c r="W108" s="15"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23">
       <c r="A109" s="12" t="s">
         <v>75</v>
       </c>
@@ -9444,39 +9428,37 @@
         <v>191</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N109" s="24">
-        <v>13910276867</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N109" s="24"/>
       <c r="O109" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P109" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q109" s="15">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R109" s="35">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S109" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T109" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="U109" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V109" s="11" t="str">
         <f t="shared" si="5"/>
@@ -9484,7 +9466,7 @@
       </c>
       <c r="W109" s="15"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23">
       <c r="A110" s="12" t="s">
         <v>75</v>
       </c>
@@ -9495,7 +9477,7 @@
         <v>77</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E110" s="13" t="s">
         <v>80</v>
@@ -9507,7 +9489,7 @@
         <v>189</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>82</v>
@@ -9516,33 +9498,35 @@
         <v>191</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M110" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N110" s="24"/>
+      <c r="N110" s="24">
+        <v>18500080986</v>
+      </c>
       <c r="O110" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P110" s="15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q110" s="15">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="R110" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S110" s="15">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T110" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="U110" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9554,7 +9538,7 @@
       </c>
       <c r="W110" s="15"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23">
       <c r="A111" s="12" t="s">
         <v>75</v>
       </c>
@@ -9565,7 +9549,7 @@
         <v>77</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E111" s="13" t="s">
         <v>80</v>
@@ -9577,7 +9561,7 @@
         <v>189</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>82</v>
@@ -9586,35 +9570,33 @@
         <v>191</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M111" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N111" s="24">
-        <v>18500080986</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N111" s="24"/>
       <c r="O111" s="15">
         <v>4</v>
       </c>
       <c r="P111" s="15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q111" s="15">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R111" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S111" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T111" s="32">
         <f t="shared" si="7"/>
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="U111" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9626,7 +9608,7 @@
       </c>
       <c r="W111" s="15"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23">
       <c r="A112" s="12" t="s">
         <v>75</v>
       </c>
@@ -9637,7 +9619,7 @@
         <v>77</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E112" s="13" t="s">
         <v>80</v>
@@ -9658,37 +9640,39 @@
         <v>191</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N112" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="N112" s="24">
+        <v>13621093498</v>
+      </c>
       <c r="O112" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P112" s="15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="15">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R112" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S112" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T112" s="32">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="U112" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V112" s="11" t="str">
         <f t="shared" si="5"/>
@@ -9696,7 +9680,7 @@
       </c>
       <c r="W112" s="15"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23">
       <c r="A113" s="12" t="s">
         <v>75</v>
       </c>
@@ -9719,7 +9703,7 @@
         <v>189</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>82</v>
@@ -9728,16 +9712,16 @@
         <v>191</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M113" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N113" s="24">
-        <v>13621093498</v>
+        <v>13810400716</v>
       </c>
       <c r="O113" s="15">
         <v>0</v>
@@ -9768,7 +9752,7 @@
       </c>
       <c r="W113" s="15"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23">
       <c r="A114" s="12" t="s">
         <v>75</v>
       </c>
@@ -9800,7 +9784,7 @@
         <v>191</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>179</v>
@@ -9808,31 +9792,29 @@
       <c r="M114" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N114" s="24">
-        <v>13810400716</v>
-      </c>
+      <c r="N114" s="24"/>
       <c r="O114" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P114" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q114" s="15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R114" s="35">
         <v>70</v>
       </c>
       <c r="S114" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T114" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="U114" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V114" s="11" t="str">
         <f t="shared" si="5"/>
@@ -9840,7 +9822,7 @@
       </c>
       <c r="W114" s="15"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23">
       <c r="A115" s="12" t="s">
         <v>75</v>
       </c>
@@ -9851,7 +9833,7 @@
         <v>77</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E115" s="13" t="s">
         <v>80</v>
@@ -9872,7 +9854,7 @@
         <v>191</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>179</v>
@@ -9882,23 +9864,23 @@
       </c>
       <c r="N115" s="24"/>
       <c r="O115" s="15">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P115" s="15">
         <v>30</v>
       </c>
       <c r="Q115" s="15">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="R115" s="35">
         <v>70</v>
       </c>
       <c r="S115" s="15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T115" s="32">
         <f t="shared" si="7"/>
-        <v>8400</v>
+        <v>42000</v>
       </c>
       <c r="U115" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9910,7 +9892,7 @@
       </c>
       <c r="W115" s="15"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23">
       <c r="A116" s="12" t="s">
         <v>75</v>
       </c>
@@ -9921,7 +9903,7 @@
         <v>77</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>80</v>
@@ -9942,7 +9924,7 @@
         <v>191</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>179</v>
@@ -9950,25 +9932,27 @@
       <c r="M116" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N116" s="24"/>
+      <c r="N116" s="24">
+        <v>13910812495</v>
+      </c>
       <c r="O116" s="15">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P116" s="15">
         <v>30</v>
       </c>
       <c r="Q116" s="15">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="R116" s="35">
         <v>70</v>
       </c>
       <c r="S116" s="15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="T116" s="32">
         <f t="shared" si="7"/>
-        <v>42000</v>
+        <v>8400</v>
       </c>
       <c r="U116" s="11" t="str">
         <f t="shared" si="8"/>
@@ -9980,7 +9964,7 @@
       </c>
       <c r="W116" s="15"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23">
       <c r="A117" s="12" t="s">
         <v>75</v>
       </c>
@@ -10012,7 +9996,7 @@
         <v>191</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>179</v>
@@ -10021,16 +10005,16 @@
         <v>10</v>
       </c>
       <c r="N117" s="24">
-        <v>13910812495</v>
+        <v>13910310195</v>
       </c>
       <c r="O117" s="15">
         <v>4</v>
       </c>
       <c r="P117" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q117" s="15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R117" s="35">
         <v>70</v>
@@ -10040,7 +10024,7 @@
       </c>
       <c r="T117" s="32">
         <f t="shared" si="7"/>
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="U117" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10052,7 +10036,7 @@
       </c>
       <c r="W117" s="15"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23">
       <c r="A118" s="12" t="s">
         <v>75</v>
       </c>
@@ -10063,7 +10047,7 @@
         <v>77</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>80</v>
@@ -10075,7 +10059,7 @@
         <v>189</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>82</v>
@@ -10084,47 +10068,45 @@
         <v>191</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M118" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N118" s="24">
-        <v>13910310195</v>
-      </c>
+      <c r="N118" s="24"/>
       <c r="O118" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P118" s="15">
         <v>25</v>
       </c>
       <c r="Q118" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R118" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S118" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T118" s="32">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="U118" s="11" t="str">
         <f t="shared" si="8"/>
         <v>H</v>
       </c>
       <c r="V118" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="V118:V145" si="9">IF(S118&lt;=20,"Level 0",IF(S118&lt;=100,"Level 1",IF(S118&lt;=300,"Level 2","Level 3")))</f>
         <v>Level 0</v>
       </c>
       <c r="W118" s="15"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23">
       <c r="A119" s="12" t="s">
         <v>75</v>
       </c>
@@ -10156,10 +10138,10 @@
         <v>191</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M119" s="13" t="s">
         <v>10</v>
@@ -10178,7 +10160,7 @@
         <v>75</v>
       </c>
       <c r="S119" s="15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T119" s="32">
         <f t="shared" si="7"/>
@@ -10189,12 +10171,12 @@
         <v>H</v>
       </c>
       <c r="V119" s="11" t="str">
-        <f t="shared" ref="V119:V146" si="9">IF(S119&lt;=20,"Level 0",IF(S119&lt;=100,"Level 1",IF(S119&lt;=300,"Level 2","Level 3")))</f>
+        <f t="shared" si="9"/>
         <v>Level 0</v>
       </c>
       <c r="W119" s="15"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23">
       <c r="A120" s="12" t="s">
         <v>75</v>
       </c>
@@ -10226,10 +10208,10 @@
         <v>191</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M120" s="13" t="s">
         <v>10</v>
@@ -10248,7 +10230,7 @@
         <v>75</v>
       </c>
       <c r="S120" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T120" s="32">
         <f t="shared" si="7"/>
@@ -10264,7 +10246,7 @@
       </c>
       <c r="W120" s="15"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23">
       <c r="A121" s="12" t="s">
         <v>75</v>
       </c>
@@ -10296,13 +10278,13 @@
         <v>191</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N121" s="24"/>
       <c r="O121" s="15">
@@ -10318,7 +10300,7 @@
         <v>75</v>
       </c>
       <c r="S121" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T121" s="32">
         <f t="shared" si="7"/>
@@ -10334,7 +10316,7 @@
       </c>
       <c r="W121" s="15"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23">
       <c r="A122" s="12" t="s">
         <v>75</v>
       </c>
@@ -10345,7 +10327,7 @@
         <v>77</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E122" s="13" t="s">
         <v>80</v>
@@ -10357,7 +10339,7 @@
         <v>189</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>82</v>
@@ -10366,33 +10348,35 @@
         <v>191</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M122" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N122" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="N122" s="24">
+        <v>15811227722</v>
+      </c>
       <c r="O122" s="15">
         <v>8</v>
       </c>
       <c r="P122" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q122" s="15">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="R122" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S122" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="T122" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>16800</v>
       </c>
       <c r="U122" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10404,7 +10388,7 @@
       </c>
       <c r="W122" s="15"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23">
       <c r="A123" s="12" t="s">
         <v>75</v>
       </c>
@@ -10418,7 +10402,7 @@
         <v>79</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>81</v>
@@ -10436,7 +10420,7 @@
         <v>191</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L123" s="7" t="s">
         <v>179</v>
@@ -10445,26 +10429,26 @@
         <v>10</v>
       </c>
       <c r="N123" s="24">
-        <v>15811227722</v>
+        <v>13811195202</v>
       </c>
       <c r="O123" s="15">
         <v>8</v>
       </c>
       <c r="P123" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q123" s="15">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="R123" s="35">
         <v>70</v>
       </c>
       <c r="S123" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T123" s="32">
         <f t="shared" si="7"/>
-        <v>16800</v>
+        <v>14000</v>
       </c>
       <c r="U123" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10476,7 +10460,7 @@
       </c>
       <c r="W123" s="15"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23">
       <c r="A124" s="12" t="s">
         <v>75</v>
       </c>
@@ -10490,7 +10474,7 @@
         <v>79</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="F124" s="14" t="s">
         <v>81</v>
@@ -10499,7 +10483,7 @@
         <v>189</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>82</v>
@@ -10508,35 +10492,35 @@
         <v>191</v>
       </c>
       <c r="K124" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N124" s="24">
-        <v>13811195202</v>
+        <v>17800161738</v>
       </c>
       <c r="O124" s="15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P124" s="15">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q124" s="15">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="R124" s="35">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S124" s="15">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="T124" s="32">
         <f t="shared" si="7"/>
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="U124" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10548,7 +10532,7 @@
       </c>
       <c r="W124" s="15"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23">
       <c r="A125" s="12" t="s">
         <v>75</v>
       </c>
@@ -10559,7 +10543,7 @@
         <v>77</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>80</v>
@@ -10580,35 +10564,33 @@
         <v>191</v>
       </c>
       <c r="K125" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M125" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N125" s="24"/>
+      <c r="O125" s="15">
+        <v>8</v>
+      </c>
+      <c r="P125" s="15">
+        <v>25</v>
+      </c>
+      <c r="Q125" s="15">
+        <v>200</v>
+      </c>
+      <c r="R125" s="35">
+        <v>75</v>
+      </c>
+      <c r="S125" s="15">
         <v>11</v>
-      </c>
-      <c r="N125" s="24">
-        <v>17800161738</v>
-      </c>
-      <c r="O125" s="15">
-        <v>20</v>
-      </c>
-      <c r="P125" s="15">
-        <v>40</v>
-      </c>
-      <c r="Q125" s="15">
-        <v>800</v>
-      </c>
-      <c r="R125" s="35">
-        <v>50</v>
-      </c>
-      <c r="S125" s="15">
-        <v>20</v>
       </c>
       <c r="T125" s="32">
         <f t="shared" si="7"/>
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="U125" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10620,7 +10602,7 @@
       </c>
       <c r="W125" s="15"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23">
       <c r="A126" s="12" t="s">
         <v>75</v>
       </c>
@@ -10652,7 +10634,7 @@
         <v>191</v>
       </c>
       <c r="K126" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>181</v>
@@ -10674,7 +10656,7 @@
         <v>75</v>
       </c>
       <c r="S126" s="15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="T126" s="32">
         <f t="shared" si="7"/>
@@ -10690,7 +10672,7 @@
       </c>
       <c r="W126" s="15"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23">
       <c r="A127" s="12" t="s">
         <v>75</v>
       </c>
@@ -10701,7 +10683,7 @@
         <v>77</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>80</v>
@@ -10713,7 +10695,7 @@
         <v>189</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I127" s="7" t="s">
         <v>82</v>
@@ -10722,33 +10704,33 @@
         <v>191</v>
       </c>
       <c r="K127" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N127" s="24"/>
       <c r="O127" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P127" s="15">
         <v>25</v>
       </c>
       <c r="Q127" s="15">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="R127" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S127" s="15">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="T127" s="32">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>5250</v>
       </c>
       <c r="U127" s="11" t="str">
         <f t="shared" si="8"/>
@@ -10756,11 +10738,11 @@
       </c>
       <c r="V127" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W127" s="15"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23">
       <c r="A128" s="12" t="s">
         <v>75</v>
       </c>
@@ -10771,7 +10753,7 @@
         <v>77</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E128" s="13" t="s">
         <v>80</v>
@@ -10783,7 +10765,7 @@
         <v>189</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>82</v>
@@ -10792,45 +10774,45 @@
         <v>191</v>
       </c>
       <c r="K128" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M128" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N128" s="24"/>
       <c r="O128" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P128" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q128" s="15">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="R128" s="35">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="S128" s="15">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="T128" s="32">
         <f t="shared" si="7"/>
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="U128" s="11" t="str">
         <f t="shared" si="8"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V128" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 2</v>
+        <v>Level 0</v>
       </c>
       <c r="W128" s="15"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23">
       <c r="A129" s="12" t="s">
         <v>75</v>
       </c>
@@ -10841,7 +10823,7 @@
         <v>77</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E129" s="13" t="s">
         <v>80</v>
@@ -10853,7 +10835,7 @@
         <v>189</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I129" s="7" t="s">
         <v>82</v>
@@ -10862,37 +10844,37 @@
         <v>191</v>
       </c>
       <c r="K129" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M129" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N129" s="24"/>
       <c r="O129" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P129" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q129" s="15">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="R129" s="35">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S129" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T129" s="32">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="U129" s="11" t="str">
-        <f t="shared" si="8"/>
-        <v>L</v>
+        <f t="shared" ref="U129:U145" si="10">IF(T129&lt;83,"L",IF(T129&lt;205,"M","H"))</f>
+        <v>H</v>
       </c>
       <c r="V129" s="11" t="str">
         <f t="shared" si="9"/>
@@ -10900,7 +10882,7 @@
       </c>
       <c r="W129" s="15"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23">
       <c r="A130" s="12" t="s">
         <v>75</v>
       </c>
@@ -10932,7 +10914,7 @@
         <v>191</v>
       </c>
       <c r="K130" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>179</v>
@@ -10940,37 +10922,39 @@
       <c r="M130" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N130" s="24"/>
+      <c r="N130" s="24">
+        <v>13651364567</v>
+      </c>
       <c r="O130" s="15">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P130" s="15">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q130" s="15">
-        <v>140</v>
+        <v>625</v>
       </c>
       <c r="R130" s="35">
         <v>70</v>
       </c>
       <c r="S130" s="15">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="T130" s="32">
-        <f t="shared" si="7"/>
-        <v>9800</v>
+        <f t="shared" ref="T130:T145" si="11">Q130*R130</f>
+        <v>43750</v>
       </c>
       <c r="U130" s="11" t="str">
-        <f t="shared" ref="U130:U146" si="10">IF(T130&lt;83,"L",IF(T130&lt;205,"M","H"))</f>
+        <f t="shared" si="10"/>
         <v>H</v>
       </c>
       <c r="V130" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W130" s="15"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23">
       <c r="A131" s="12" t="s">
         <v>75</v>
       </c>
@@ -11002,35 +10986,33 @@
         <v>191</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N131" s="24">
-        <v>13651364567</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N131" s="24"/>
       <c r="O131" s="15">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="P131" s="15">
         <v>25</v>
       </c>
       <c r="Q131" s="15">
-        <v>625</v>
+        <v>100</v>
       </c>
       <c r="R131" s="35">
         <v>70</v>
       </c>
       <c r="S131" s="15">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T131" s="32">
-        <f t="shared" ref="T131:T146" si="11">Q131*R131</f>
-        <v>43750</v>
+        <f t="shared" si="11"/>
+        <v>7000</v>
       </c>
       <c r="U131" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11042,7 +11024,7 @@
       </c>
       <c r="W131" s="15"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23">
       <c r="A132" s="12" t="s">
         <v>75</v>
       </c>
@@ -11053,7 +11035,7 @@
         <v>77</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>80</v>
@@ -11065,7 +11047,7 @@
         <v>189</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>82</v>
@@ -11074,33 +11056,33 @@
         <v>191</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M132" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N132" s="24"/>
       <c r="O132" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P132" s="15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q132" s="15">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="R132" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S132" s="15">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="T132" s="32">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="U132" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11108,11 +11090,11 @@
       </c>
       <c r="V132" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W132" s="15"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23">
       <c r="A133" s="12" t="s">
         <v>75</v>
       </c>
@@ -11123,7 +11105,7 @@
         <v>77</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>80</v>
@@ -11135,7 +11117,7 @@
         <v>189</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I133" s="7" t="s">
         <v>82</v>
@@ -11144,37 +11126,37 @@
         <v>191</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N133" s="24"/>
       <c r="O133" s="15">
+        <v>0</v>
+      </c>
+      <c r="P133" s="15">
+        <v>30</v>
+      </c>
+      <c r="Q133" s="15">
+        <v>0</v>
+      </c>
+      <c r="R133" s="35">
+        <v>70</v>
+      </c>
+      <c r="S133" s="15">
         <v>8</v>
-      </c>
-      <c r="P133" s="15">
-        <v>20</v>
-      </c>
-      <c r="Q133" s="15">
-        <v>160</v>
-      </c>
-      <c r="R133" s="35">
-        <v>75</v>
-      </c>
-      <c r="S133" s="15">
-        <v>5</v>
       </c>
       <c r="T133" s="32">
         <f t="shared" si="11"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="U133" s="11" t="str">
         <f t="shared" si="10"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V133" s="11" t="str">
         <f t="shared" si="9"/>
@@ -11182,7 +11164,7 @@
       </c>
       <c r="W133" s="15"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23">
       <c r="A134" s="12" t="s">
         <v>75</v>
       </c>
@@ -11193,7 +11175,7 @@
         <v>77</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>80</v>
@@ -11214,7 +11196,7 @@
         <v>191</v>
       </c>
       <c r="K134" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L134" s="7" t="s">
         <v>179</v>
@@ -11224,35 +11206,35 @@
       </c>
       <c r="N134" s="24"/>
       <c r="O134" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P134" s="15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q134" s="15">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="R134" s="35">
         <v>70</v>
       </c>
       <c r="S134" s="15">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="T134" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>39200</v>
       </c>
       <c r="U134" s="11" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V134" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W134" s="15"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23">
       <c r="A135" s="12" t="s">
         <v>75</v>
       </c>
@@ -11284,7 +11266,7 @@
         <v>191</v>
       </c>
       <c r="K135" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>179</v>
@@ -11292,25 +11274,27 @@
       <c r="M135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N135" s="24"/>
+      <c r="N135" s="24">
+        <v>13671398109</v>
+      </c>
       <c r="O135" s="15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P135" s="15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q135" s="15">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="R135" s="35">
         <v>70</v>
       </c>
       <c r="S135" s="15">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="T135" s="32">
         <f t="shared" si="11"/>
-        <v>39200</v>
+        <v>42000</v>
       </c>
       <c r="U135" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11322,7 +11306,7 @@
       </c>
       <c r="W135" s="15"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23">
       <c r="A136" s="12" t="s">
         <v>75</v>
       </c>
@@ -11333,7 +11317,7 @@
         <v>77</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E136" s="13" t="s">
         <v>80</v>
@@ -11354,35 +11338,33 @@
         <v>191</v>
       </c>
       <c r="K136" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N136" s="24">
-        <v>13671398109</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N136" s="24"/>
       <c r="O136" s="15">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P136" s="15">
         <v>30</v>
       </c>
       <c r="Q136" s="15">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="R136" s="35">
         <v>70</v>
       </c>
       <c r="S136" s="15">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="T136" s="32">
         <f t="shared" si="11"/>
-        <v>42000</v>
+        <v>8400</v>
       </c>
       <c r="U136" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11390,11 +11372,11 @@
       </c>
       <c r="V136" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 2</v>
+        <v>Level 0</v>
       </c>
       <c r="W136" s="15"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23">
       <c r="A137" s="12" t="s">
         <v>75</v>
       </c>
@@ -11426,33 +11408,35 @@
         <v>191</v>
       </c>
       <c r="K137" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L137" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M137" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N137" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="N137" s="24">
+        <v>18610953892</v>
+      </c>
       <c r="O137" s="15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P137" s="15">
         <v>30</v>
       </c>
       <c r="Q137" s="15">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="R137" s="35">
         <v>70</v>
       </c>
       <c r="S137" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T137" s="32">
         <f t="shared" si="11"/>
-        <v>8400</v>
+        <v>16800</v>
       </c>
       <c r="U137" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11464,7 +11448,7 @@
       </c>
       <c r="W137" s="15"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23">
       <c r="A138" s="12" t="s">
         <v>75</v>
       </c>
@@ -11487,7 +11471,7 @@
         <v>189</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>82</v>
@@ -11496,35 +11480,35 @@
         <v>191</v>
       </c>
       <c r="K138" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M138" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N138" s="24">
-        <v>18610953892</v>
+        <v>13910862282</v>
       </c>
       <c r="O138" s="15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P138" s="15">
         <v>30</v>
       </c>
       <c r="Q138" s="15">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="R138" s="35">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S138" s="15">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T138" s="32">
         <f t="shared" si="11"/>
-        <v>16800</v>
+        <v>30000</v>
       </c>
       <c r="U138" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11532,11 +11516,11 @@
       </c>
       <c r="V138" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 0</v>
+        <v>Level 2</v>
       </c>
       <c r="W138" s="15"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23">
       <c r="A139" s="12" t="s">
         <v>75</v>
       </c>
@@ -11547,7 +11531,7 @@
         <v>77</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>80</v>
@@ -11568,31 +11552,29 @@
         <v>191</v>
       </c>
       <c r="K139" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M139" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N139" s="24">
-        <v>13910862282</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N139" s="24"/>
       <c r="O139" s="15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P139" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q139" s="15">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R139" s="35">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="S139" s="15">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="T139" s="32">
         <f t="shared" si="11"/>
@@ -11604,11 +11586,11 @@
       </c>
       <c r="V139" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 2</v>
+        <v>Level 0</v>
       </c>
       <c r="W139" s="15"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23">
       <c r="A140" s="12" t="s">
         <v>75</v>
       </c>
@@ -11619,7 +11601,7 @@
         <v>77</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>80</v>
@@ -11631,7 +11613,7 @@
         <v>189</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>82</v>
@@ -11640,33 +11622,35 @@
         <v>191</v>
       </c>
       <c r="K140" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M140" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N140" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="N140" s="24">
+        <v>13811185105</v>
+      </c>
       <c r="O140" s="15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P140" s="15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q140" s="15">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="R140" s="35">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="S140" s="15">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T140" s="32">
         <f t="shared" si="11"/>
-        <v>30000</v>
+        <v>3600</v>
       </c>
       <c r="U140" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11678,7 +11662,7 @@
       </c>
       <c r="W140" s="15"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23">
       <c r="A141" s="12" t="s">
         <v>75</v>
       </c>
@@ -11710,7 +11694,7 @@
         <v>191</v>
       </c>
       <c r="K141" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L141" s="7" t="s">
         <v>179</v>
@@ -11719,26 +11703,26 @@
         <v>10</v>
       </c>
       <c r="N141" s="24">
-        <v>13811185105</v>
+        <v>13621386083</v>
       </c>
       <c r="O141" s="15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P141" s="15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q141" s="15">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="R141" s="35">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S141" s="15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="T141" s="32">
         <f t="shared" si="11"/>
-        <v>3600</v>
+        <v>38400</v>
       </c>
       <c r="U141" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11746,11 +11730,11 @@
       </c>
       <c r="V141" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 0</v>
+        <v>Level 1</v>
       </c>
       <c r="W141" s="15"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23">
       <c r="A142" s="12" t="s">
         <v>75</v>
       </c>
@@ -11782,7 +11766,7 @@
         <v>191</v>
       </c>
       <c r="K142" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>179</v>
@@ -11791,7 +11775,7 @@
         <v>10</v>
       </c>
       <c r="N142" s="24">
-        <v>13621386083</v>
+        <v>13621078717</v>
       </c>
       <c r="O142" s="15">
         <v>16</v>
@@ -11803,14 +11787,14 @@
         <v>480</v>
       </c>
       <c r="R142" s="35">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S142" s="15">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="T142" s="32">
         <f t="shared" si="11"/>
-        <v>38400</v>
+        <v>33600</v>
       </c>
       <c r="U142" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11822,7 +11806,7 @@
       </c>
       <c r="W142" s="15"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23">
       <c r="A143" s="12" t="s">
         <v>75</v>
       </c>
@@ -11833,7 +11817,7 @@
         <v>77</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>80</v>
@@ -11845,7 +11829,7 @@
         <v>189</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>82</v>
@@ -11854,35 +11838,33 @@
         <v>191</v>
       </c>
       <c r="K143" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M143" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N143" s="24">
-        <v>13621078717</v>
-      </c>
+      <c r="N143" s="24"/>
       <c r="O143" s="15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P143" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q143" s="15">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="R143" s="35">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="S143" s="15">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="T143" s="32">
         <f t="shared" si="11"/>
-        <v>33600</v>
+        <v>15000</v>
       </c>
       <c r="U143" s="11" t="str">
         <f t="shared" si="10"/>
@@ -11890,11 +11872,11 @@
       </c>
       <c r="V143" s="11" t="str">
         <f t="shared" si="9"/>
-        <v>Level 1</v>
+        <v>Level 0</v>
       </c>
       <c r="W143" s="15"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23">
       <c r="A144" s="12" t="s">
         <v>75</v>
       </c>
@@ -11905,7 +11887,7 @@
         <v>77</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E144" s="13" t="s">
         <v>80</v>
@@ -11917,7 +11899,7 @@
         <v>189</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>82</v>
@@ -11926,37 +11908,39 @@
         <v>191</v>
       </c>
       <c r="K144" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M144" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N144" s="24"/>
+      <c r="N144" s="24">
+        <v>13701366852</v>
+      </c>
       <c r="O144" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P144" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q144" s="15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R144" s="35">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S144" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T144" s="32">
         <f t="shared" si="11"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="U144" s="11" t="str">
         <f t="shared" si="10"/>
-        <v>H</v>
+        <v>L</v>
       </c>
       <c r="V144" s="11" t="str">
         <f t="shared" si="9"/>
@@ -11964,7 +11948,7 @@
       </c>
       <c r="W144" s="15"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23">
       <c r="A145" s="12" t="s">
         <v>75</v>
       </c>
@@ -11975,7 +11959,7 @@
         <v>77</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>80</v>
@@ -11996,7 +11980,7 @@
         <v>191</v>
       </c>
       <c r="K145" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L145" s="7" t="s">
         <v>179</v>
@@ -12005,30 +11989,30 @@
         <v>10</v>
       </c>
       <c r="N145" s="24">
-        <v>13701366852</v>
+        <v>13910843524</v>
       </c>
       <c r="O145" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P145" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q145" s="15">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R145" s="35">
         <v>70</v>
       </c>
       <c r="S145" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T145" s="32">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="U145" s="11" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="V145" s="11" t="str">
         <f t="shared" si="9"/>
@@ -12036,84 +12020,12 @@
       </c>
       <c r="W145" s="15"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A146" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K146" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="L146" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M146" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N146" s="24">
-        <v>13910843524</v>
-      </c>
-      <c r="O146" s="15">
-        <v>4</v>
-      </c>
-      <c r="P146" s="15">
-        <v>30</v>
-      </c>
-      <c r="Q146" s="15">
-        <v>120</v>
-      </c>
-      <c r="R146" s="35">
-        <v>70</v>
-      </c>
-      <c r="S146" s="15">
-        <v>4</v>
-      </c>
-      <c r="T146" s="32">
-        <f t="shared" si="11"/>
-        <v>8400</v>
-      </c>
-      <c r="U146" s="11" t="str">
-        <f t="shared" si="10"/>
-        <v>H</v>
-      </c>
-      <c r="V146" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>Level 0</v>
-      </c>
-      <c r="W146" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:V146" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V145" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q118" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q117" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
